--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196982.6931393865</v>
+        <v>187935.8437268006</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12538307.97624287</v>
+        <v>12538307.97624288</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3198679.807376506</v>
+        <v>3198679.807376507</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13.50979349205133</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,38 +679,38 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.536891551628983</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>18.21830727030009</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.04668504368032</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="X2" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>18.21830727030009</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.888458418784966</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>11.15822662489535</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>16.04668504368032</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="V3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>18.21830727030009</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.21830727030009</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.21830727030009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -849,31 +849,31 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.5891238419305855</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>8.397806588459291</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.19827594413262</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>21.70782937363144</v>
       </c>
       <c r="J5" t="n">
-        <v>1.152398102006448</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1585647136001498</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.11143217127993</v>
       </c>
       <c r="S5" t="n">
-        <v>23.50971295904437</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -983,55 +983,55 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.67035361428234</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.03700156004394</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>23.50971295904437</v>
-      </c>
-      <c r="G6" t="n">
-        <v>23.50971295904437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20.70735517432628</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.183833028195911</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.183833028195925</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.22935897549875</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.65122101284321</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14.01919626068104</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6.998889050745814</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>21.01808531142686</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.86249467691512</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.00995232957614</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.700923269594423</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="V9" t="n">
-        <v>7.307209712256275</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>23.86249467691512</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3.479784596074263</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.479784596074248</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>353.5240688430864</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>55.72559734921661</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.14829163864474</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.5354044354234</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6584024877743</v>
       </c>
       <c r="V11" t="n">
-        <v>125.5659701182345</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>103.6549143897921</v>
+        <v>4.904615648444847</v>
       </c>
       <c r="F12" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>45.54606290860439</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>137.416053885909</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>182.8708120119527</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W12" t="n">
-        <v>19.66768308630913</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X12" t="n">
         <v>161.8425727710037</v>
       </c>
       <c r="Y12" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>50.62559753054257</v>
+        <v>116.3328253668315</v>
       </c>
       <c r="H13" t="n">
-        <v>136.7271384939178</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>79.7239485572547</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.08995158650413</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.3959181317836</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>353.5240688430863</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>353.5240688430863</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="G14" t="n">
-        <v>353.5240688430863</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H14" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>240.2357081983461</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="X14" t="n">
-        <v>30.95467124977541</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>116.3308444476703</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>59.25778246020255</v>
+        <v>37.32278860356824</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -1754,7 +1754,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y15" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>141.2892920174108</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.7271384939178</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.2144973240341</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3480569759686</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>353.5240688430863</v>
+        <v>27.70030376292274</v>
       </c>
       <c r="G17" t="n">
-        <v>269.8090020127503</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H17" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T17" t="n">
         <v>212.5354044354234</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6584024877743</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>45.54606290860439</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>66.4784432499788</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T18" t="n">
-        <v>137.416053885909</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.8708120119527</v>
+        <v>161.1810330496381</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.210953937530695</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.984596437455115</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>163.6682015819514</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>353.5240688430863</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H20" t="n">
-        <v>280.4293285872151</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6584024877743</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>128.8203376050876</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>353.5240688430863</v>
+        <v>240.2357081983461</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>78.69576467958849</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>45.54606290860439</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>66.4784432499788</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>137.416053885909</v>
@@ -2225,10 +2225,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>17.14433378101624</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.7357926723213</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>170.4586745107906</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.220906078891</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>398.012519220714</v>
       </c>
       <c r="H23" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>102.7135475519861</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T24" t="n">
         <v>135.5372539824022</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.217382447387</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>143.0135336068618</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>331.4094189850976</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>398.012519220714</v>
       </c>
       <c r="H26" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>82.28027444302339</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H27" t="n">
-        <v>41.04430296570831</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.731202734345</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.0170007521412</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>141.6454744394804</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.012519220714</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H30" t="n">
-        <v>41.04430296570793</v>
+        <v>41.04430296570798</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T30" t="n">
         <v>135.5372539824022</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>48.55810464179196</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.66467917211007</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.012519220714</v>
+        <v>48.19323260209723</v>
       </c>
       <c r="H32" t="n">
         <v>271.5073585269046</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>51.29628209397736</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.8204262844178</v>
+        <v>57.82042628441737</v>
       </c>
       <c r="T33" t="n">
         <v>135.5372539824022</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.5300678317505</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>195.0055111844616</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>275.5197203465418</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>114.2281330636426</v>
       </c>
       <c r="H35" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T35" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H36" t="n">
         <v>41.04430296570798</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T36" t="n">
         <v>135.5372539824022</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5190049372437429</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>116.5494198094821</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>121.7530566705488</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.12326792877025</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>219.6591014095246</v>
       </c>
       <c r="H38" t="n">
         <v>271.5073585269046</v>
@@ -3559,19 +3559,19 @@
         <v>208.7218148893222</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>91.89163974602977</v>
       </c>
       <c r="H39" t="n">
-        <v>41.04430296570798</v>
+        <v>41.04430296570791</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.24192160944355</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.2527378018481</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.97209018366931</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>335.5346762711133</v>
+        <v>286.8740339261131</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>91.89163974602971</v>
+        <v>91.89163974602977</v>
       </c>
       <c r="H42" t="n">
         <v>41.04430296570798</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.82042628441737</v>
+        <v>57.82042628441735</v>
       </c>
       <c r="T42" t="n">
         <v>135.5372539824022</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>28.17790140795939</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5702563680571</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3267416342995</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>272.8288816498471</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3240185675847</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>335.5346762711137</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>277.3267416342995</v>
       </c>
       <c r="V46" t="n">
-        <v>186.4156149242411</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>266.0384087210078</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H2" t="n">
-        <v>19.85979515768471</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I2" t="n">
         <v>1.457464581624007</v>
@@ -4333,13 +4333,13 @@
         <v>1.457464581624007</v>
       </c>
       <c r="K2" t="n">
-        <v>5.219099475992264</v>
+        <v>5.219099475992257</v>
       </c>
       <c r="L2" t="n">
         <v>15.88227649088179</v>
       </c>
       <c r="M2" t="n">
-        <v>32.89339907886388</v>
+        <v>32.89339907886386</v>
       </c>
       <c r="N2" t="n">
         <v>50.92952327646097</v>
@@ -4351,31 +4351,31 @@
         <v>72.87322908120038</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.87322908120038</v>
+        <v>70.31071236238323</v>
       </c>
       <c r="R2" t="n">
-        <v>72.87322908120038</v>
+        <v>70.31071236238323</v>
       </c>
       <c r="S2" t="n">
-        <v>72.87322908120038</v>
+        <v>51.90838178632252</v>
       </c>
       <c r="T2" t="n">
-        <v>72.87322908120038</v>
+        <v>51.90838178632252</v>
       </c>
       <c r="U2" t="n">
-        <v>72.87322908120038</v>
+        <v>51.90838178632252</v>
       </c>
       <c r="V2" t="n">
-        <v>72.87322908120038</v>
+        <v>51.90838178632252</v>
       </c>
       <c r="W2" t="n">
-        <v>56.66445630980611</v>
+        <v>33.50605121026182</v>
       </c>
       <c r="X2" t="n">
-        <v>38.26212573374541</v>
+        <v>33.50605121026182</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.85979515768471</v>
+        <v>15.10372063420111</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J3" t="n">
         <v>1.457464581624007</v>
       </c>
       <c r="K3" t="n">
-        <v>1.457464581624007</v>
+        <v>5.886021080118643</v>
       </c>
       <c r="L3" t="n">
-        <v>10.6352847439671</v>
+        <v>19.36817474787377</v>
       </c>
       <c r="M3" t="n">
-        <v>28.67140894156419</v>
+        <v>37.40429894547086</v>
       </c>
       <c r="N3" t="n">
         <v>46.70753313916128</v>
@@ -4433,28 +4433,28 @@
         <v>72.87322908120038</v>
       </c>
       <c r="R3" t="n">
-        <v>61.6022930964576</v>
+        <v>72.87322908120038</v>
       </c>
       <c r="S3" t="n">
-        <v>61.6022930964576</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="T3" t="n">
-        <v>61.6022930964576</v>
+        <v>56.66445630980611</v>
       </c>
       <c r="U3" t="n">
-        <v>61.6022930964576</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="V3" t="n">
-        <v>43.19996252039689</v>
+        <v>38.26212573374541</v>
       </c>
       <c r="W3" t="n">
-        <v>24.79763194433619</v>
+        <v>19.85979515768471</v>
       </c>
       <c r="X3" t="n">
-        <v>24.79763194433619</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.395301368275488</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="C4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="D4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="E4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="F4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="G4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="H4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="L4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="M4" t="n">
         <v>1.457464581624007</v>
@@ -4521,19 +4521,19 @@
         <v>2.05253916943268</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="V4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="W4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="X4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.05253916943268</v>
+        <v>1.457464581624007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="C5" t="n">
-        <v>70.13150065168807</v>
+        <v>56.03769513888022</v>
       </c>
       <c r="D5" t="n">
-        <v>70.13150065168807</v>
+        <v>32.29051033176469</v>
       </c>
       <c r="E5" t="n">
-        <v>70.13150065168807</v>
+        <v>23.80787741412905</v>
       </c>
       <c r="F5" t="n">
-        <v>70.13150065168807</v>
+        <v>23.80787741412905</v>
       </c>
       <c r="G5" t="n">
-        <v>48.71910070811977</v>
+        <v>23.80787741412905</v>
       </c>
       <c r="H5" t="n">
-        <v>24.97191590100425</v>
+        <v>23.80787741412905</v>
       </c>
       <c r="I5" t="n">
-        <v>3.044815523598749</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J5" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K5" t="n">
-        <v>8.415911685442886</v>
+        <v>8.415911685442902</v>
       </c>
       <c r="L5" t="n">
-        <v>22.51986039522946</v>
+        <v>22.51986039522947</v>
       </c>
       <c r="M5" t="n">
-        <v>43.35950445951393</v>
+        <v>43.35950445951394</v>
       </c>
       <c r="N5" t="n">
-        <v>65.28609961349596</v>
+        <v>65.28609961349599</v>
       </c>
       <c r="O5" t="n">
-        <v>83.82378169965432</v>
+        <v>83.82378169965436</v>
       </c>
       <c r="P5" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.87868545880359</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R5" t="n">
-        <v>93.87868545880359</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="S5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="T5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="U5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="V5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="W5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="X5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
       <c r="Y5" t="n">
-        <v>70.13150065168807</v>
+        <v>79.78487994599575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.29166702906195</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="C6" t="n">
-        <v>70.29166702906195</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="D6" t="n">
-        <v>70.29166702906195</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="E6" t="n">
-        <v>70.29166702906195</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="F6" t="n">
-        <v>46.54448222194643</v>
+        <v>22.79729741483091</v>
       </c>
       <c r="G6" t="n">
-        <v>22.79729741483091</v>
+        <v>12.01916245090935</v>
       </c>
       <c r="H6" t="n">
-        <v>1.880777036723549</v>
+        <v>12.01916245090935</v>
       </c>
       <c r="I6" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J6" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K6" t="n">
-        <v>8.193129398185476</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L6" t="n">
-        <v>24.20827907854879</v>
+        <v>17.89592671708687</v>
       </c>
       <c r="M6" t="n">
-        <v>46.04269444771656</v>
+        <v>39.73034208625465</v>
       </c>
       <c r="N6" t="n">
-        <v>62.86984279257507</v>
+        <v>63.00495791570859</v>
       </c>
       <c r="O6" t="n">
-        <v>81.90393668038411</v>
+        <v>81.90393668038412</v>
       </c>
       <c r="P6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="R6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="S6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T6" t="n">
-        <v>94.03885183617747</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U6" t="n">
-        <v>94.03885183617747</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="V6" t="n">
-        <v>94.03885183617747</v>
+        <v>70.29166702906197</v>
       </c>
       <c r="W6" t="n">
-        <v>70.29166702906195</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="X6" t="n">
-        <v>70.29166702906195</v>
+        <v>46.54448222194644</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.29166702906195</v>
+        <v>46.54448222194644</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="C7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="D7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="E7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="F7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="G7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="H7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="I7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="J7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="K7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="L7" t="n">
-        <v>2.17030174587483</v>
+        <v>2.170301745874834</v>
       </c>
       <c r="M7" t="n">
-        <v>3.005035947119194</v>
+        <v>3.005035947119205</v>
       </c>
       <c r="N7" t="n">
-        <v>5.096769994497198</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="O7" t="n">
-        <v>5.096769994497198</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="P7" t="n">
-        <v>5.096769994497198</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="R7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="S7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="T7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="U7" t="n">
-        <v>1.880777036723549</v>
+        <v>5.096769994497212</v>
       </c>
       <c r="V7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="W7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="X7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.880777036723549</v>
+        <v>1.88077703672355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.44997870766049</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="C8" t="n">
-        <v>95.44997870766049</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="D8" t="n">
-        <v>95.44997870766049</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="E8" t="n">
-        <v>95.44997870766049</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="F8" t="n">
-        <v>71.98597974251024</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="G8" t="n">
-        <v>47.8824497658283</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H8" t="n">
-        <v>23.77891978914635</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I8" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J8" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K8" t="n">
-        <v>8.629045391172397</v>
+        <v>8.629045391172404</v>
       </c>
       <c r="L8" t="n">
-        <v>22.96239275619889</v>
+        <v>22.96239275619891</v>
       </c>
       <c r="M8" t="n">
-        <v>44.05728702482661</v>
+        <v>44.05728702482666</v>
       </c>
       <c r="N8" t="n">
-        <v>66.24326259831405</v>
+        <v>66.24326259831409</v>
       </c>
       <c r="O8" t="n">
-        <v>85.02587025944861</v>
+        <v>85.02587025944867</v>
       </c>
       <c r="P8" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="R8" t="n">
-        <v>95.44997870766049</v>
+        <v>81.28917440394233</v>
       </c>
       <c r="S8" t="n">
-        <v>95.44997870766049</v>
+        <v>57.18564442726037</v>
       </c>
       <c r="T8" t="n">
-        <v>95.44997870766049</v>
+        <v>57.18564442726037</v>
       </c>
       <c r="U8" t="n">
-        <v>95.44997870766049</v>
+        <v>57.18564442726037</v>
       </c>
       <c r="V8" t="n">
-        <v>95.44997870766049</v>
+        <v>33.08211445057842</v>
       </c>
       <c r="W8" t="n">
-        <v>95.44997870766049</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="X8" t="n">
-        <v>95.44997870766049</v>
+        <v>8.978584473896458</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.44997870766049</v>
+        <v>1.908999574153211</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.96542881960858</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="C9" t="n">
-        <v>63.96542881960858</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="D9" t="n">
-        <v>63.96542881960858</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="E9" t="n">
-        <v>63.96542881960858</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="F9" t="n">
-        <v>63.96542881960858</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="G9" t="n">
-        <v>39.86189884292663</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H9" t="n">
-        <v>15.75836886624469</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I9" t="n">
-        <v>5.64730590707687</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J9" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K9" t="n">
-        <v>8.34694592325231</v>
+        <v>8.346945923252314</v>
       </c>
       <c r="L9" t="n">
-        <v>18.19275653793358</v>
+        <v>24.53097221925456</v>
       </c>
       <c r="M9" t="n">
-        <v>40.22424295215662</v>
+        <v>46.5624586334776</v>
       </c>
       <c r="N9" t="n">
-        <v>63.84811268230258</v>
+        <v>63.84811268230261</v>
       </c>
       <c r="O9" t="n">
-        <v>83.0672595903836</v>
+        <v>83.06725959038364</v>
       </c>
       <c r="P9" t="n">
-        <v>95.35069610950768</v>
+        <v>95.35069610950774</v>
       </c>
       <c r="Q9" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="R9" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="S9" t="n">
-        <v>95.44997870766049</v>
+        <v>95.44997870766055</v>
       </c>
       <c r="T9" t="n">
-        <v>95.44997870766049</v>
+        <v>71.34644873097859</v>
       </c>
       <c r="U9" t="n">
-        <v>95.44997870766049</v>
+        <v>47.24291875429664</v>
       </c>
       <c r="V9" t="n">
-        <v>88.06895879629052</v>
+        <v>47.24291875429664</v>
       </c>
       <c r="W9" t="n">
-        <v>63.96542881960858</v>
+        <v>23.13938877761468</v>
       </c>
       <c r="X9" t="n">
-        <v>63.96542881960858</v>
+        <v>23.13938877761468</v>
       </c>
       <c r="Y9" t="n">
-        <v>63.96542881960858</v>
+        <v>23.13938877761468</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="C10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="D10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="E10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="F10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="G10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="H10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="I10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="J10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="K10" t="n">
-        <v>1.90899957415321</v>
+        <v>1.908999574153211</v>
       </c>
       <c r="L10" t="n">
-        <v>2.295468180757751</v>
+        <v>2.29546818075776</v>
       </c>
       <c r="M10" t="n">
-        <v>3.232416129329167</v>
+        <v>3.232416129329179</v>
       </c>
       <c r="N10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="O10" t="n">
-        <v>5.423933509581744</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="P10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="R10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="S10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="T10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="U10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="V10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="W10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="X10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.90899957415321</v>
+        <v>5.42393350958176</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>385.3769445408674</v>
+        <v>798.7604457452151</v>
       </c>
       <c r="C11" t="n">
-        <v>28.28192550744691</v>
+        <v>441.6654267117939</v>
       </c>
       <c r="D11" t="n">
-        <v>28.28192550744691</v>
+        <v>441.6654267117939</v>
       </c>
       <c r="E11" t="n">
-        <v>28.28192550744691</v>
+        <v>84.57040767837282</v>
       </c>
       <c r="F11" t="n">
-        <v>28.28192550744691</v>
+        <v>84.57040767837282</v>
       </c>
       <c r="G11" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H11" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I11" t="n">
-        <v>47.97023148689595</v>
+        <v>47.97023148689618</v>
       </c>
       <c r="J11" t="n">
-        <v>137.4855014315481</v>
+        <v>137.4855014315482</v>
       </c>
       <c r="K11" t="n">
-        <v>279.8906958536299</v>
+        <v>279.8906958536302</v>
       </c>
       <c r="L11" t="n">
-        <v>462.5534681648033</v>
+        <v>462.5534681648038</v>
       </c>
       <c r="M11" t="n">
-        <v>670.9472812939105</v>
+        <v>670.9472812939114</v>
       </c>
       <c r="N11" t="n">
-        <v>883.4628680500308</v>
+        <v>883.4628680500321</v>
       </c>
       <c r="O11" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P11" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q11" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461807</v>
       </c>
       <c r="R11" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="S11" t="n">
-        <v>1342.229314121189</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="T11" t="n">
-        <v>1127.547087418741</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="U11" t="n">
-        <v>869.30627682503</v>
+        <v>1155.855464778636</v>
       </c>
       <c r="V11" t="n">
-        <v>742.471963574288</v>
+        <v>1155.855464778636</v>
       </c>
       <c r="W11" t="n">
-        <v>742.471963574288</v>
+        <v>798.7604457452151</v>
       </c>
       <c r="X11" t="n">
-        <v>742.471963574288</v>
+        <v>798.7604457452151</v>
       </c>
       <c r="Y11" t="n">
-        <v>742.471963574288</v>
+        <v>798.7604457452151</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.2723443850277</v>
+        <v>150.7419862105935</v>
       </c>
       <c r="C12" t="n">
-        <v>469.7664409025325</v>
+        <v>33.23608272809831</v>
       </c>
       <c r="D12" t="n">
-        <v>365.9264824178175</v>
+        <v>33.23608272809831</v>
       </c>
       <c r="E12" t="n">
-        <v>261.2245486907547</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="F12" t="n">
-        <v>167.5787183736589</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G12" t="n">
-        <v>74.28804965755236</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H12" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I12" t="n">
-        <v>38.02192457613895</v>
+        <v>38.02192457613902</v>
       </c>
       <c r="J12" t="n">
-        <v>88.27870598367116</v>
+        <v>88.2787059836713</v>
       </c>
       <c r="K12" t="n">
-        <v>186.8757092093128</v>
+        <v>186.8757092093131</v>
       </c>
       <c r="L12" t="n">
-        <v>326.9789606098386</v>
+        <v>326.978960609839</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6183378287949</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N12" t="n">
-        <v>667.0095683106035</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0179527551977</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P12" t="n">
-        <v>943.2842237880224</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q12" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R12" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S12" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="T12" t="n">
-        <v>1039.235935236963</v>
+        <v>900.4318404027125</v>
       </c>
       <c r="U12" t="n">
-        <v>1039.235935236963</v>
+        <v>715.7138484714471</v>
       </c>
       <c r="V12" t="n">
-        <v>1039.235935236963</v>
+        <v>510.7407096107134</v>
       </c>
       <c r="W12" t="n">
-        <v>1019.369588685135</v>
+        <v>314.2193324439306</v>
       </c>
       <c r="X12" t="n">
-        <v>855.8922424517981</v>
+        <v>150.7419862105935</v>
       </c>
       <c r="Y12" t="n">
-        <v>716.1993538050905</v>
+        <v>150.7419862105935</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="C13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="D13" t="n">
-        <v>298.0563543778662</v>
+        <v>311.9980357655343</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0563543778662</v>
+        <v>145.7898299183879</v>
       </c>
       <c r="F13" t="n">
-        <v>298.0563543778662</v>
+        <v>145.7898299183879</v>
       </c>
       <c r="G13" t="n">
-        <v>246.919387175298</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H13" t="n">
-        <v>108.8111664743709</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I13" t="n">
-        <v>28.28192550744691</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J13" t="n">
-        <v>52.18246991706594</v>
+        <v>52.18246991706603</v>
       </c>
       <c r="K13" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L13" t="n">
-        <v>175.7993050620775</v>
+        <v>175.7993050620777</v>
       </c>
       <c r="M13" t="n">
-        <v>251.7392267253734</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N13" t="n">
-        <v>327.1503147453034</v>
+        <v>327.1503147453039</v>
       </c>
       <c r="O13" t="n">
-        <v>393.5037832208841</v>
+        <v>393.5037832208848</v>
       </c>
       <c r="P13" t="n">
-        <v>447.1830681082847</v>
+        <v>447.1830681082854</v>
       </c>
       <c r="Q13" t="n">
-        <v>475.3148086387629</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="R13" t="n">
-        <v>457.0421302685567</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="S13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="T13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="U13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="V13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="W13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="X13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="Y13" t="n">
-        <v>298.0563543778662</v>
+        <v>475.3148086387636</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1382.828930675602</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="C14" t="n">
-        <v>1382.828930675602</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="D14" t="n">
-        <v>1382.828930675602</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="E14" t="n">
-        <v>1025.733911642182</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="F14" t="n">
-        <v>668.6388926087614</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="G14" t="n">
-        <v>311.5438735753409</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H14" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I14" t="n">
-        <v>47.97023148689597</v>
+        <v>47.97023148689618</v>
       </c>
       <c r="J14" t="n">
-        <v>137.4855014315478</v>
+        <v>137.4855014315482</v>
       </c>
       <c r="K14" t="n">
-        <v>279.8906958536297</v>
+        <v>279.8906958536303</v>
       </c>
       <c r="L14" t="n">
-        <v>462.5534681648031</v>
+        <v>462.5534681648039</v>
       </c>
       <c r="M14" t="n">
-        <v>670.9472812939102</v>
+        <v>670.9472812939113</v>
       </c>
       <c r="N14" t="n">
-        <v>883.4628680500306</v>
+        <v>883.4628680500319</v>
       </c>
       <c r="O14" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P14" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q14" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461807</v>
       </c>
       <c r="R14" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="S14" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T14" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="U14" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="V14" t="n">
-        <v>1414.096275372345</v>
+        <v>1099.56698260771</v>
       </c>
       <c r="W14" t="n">
-        <v>1414.096275372345</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="X14" t="n">
-        <v>1382.828930675602</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="Y14" t="n">
-        <v>1382.828930675602</v>
+        <v>742.4719635742892</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.7878289899421</v>
+        <v>436.5642865078595</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2819255074469</v>
+        <v>319.0583830253643</v>
       </c>
       <c r="D15" t="n">
-        <v>28.2819255074469</v>
+        <v>215.2184245406493</v>
       </c>
       <c r="E15" t="n">
-        <v>28.2819255074469</v>
+        <v>215.2184245406493</v>
       </c>
       <c r="F15" t="n">
-        <v>28.2819255074469</v>
+        <v>121.5725942235535</v>
       </c>
       <c r="G15" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I15" t="n">
-        <v>38.02192457613894</v>
+        <v>38.02192457613902</v>
       </c>
       <c r="J15" t="n">
-        <v>88.27870598367114</v>
+        <v>88.27870598367133</v>
       </c>
       <c r="K15" t="n">
-        <v>186.8757092093128</v>
+        <v>186.8757092093132</v>
       </c>
       <c r="L15" t="n">
-        <v>326.9789606098386</v>
+        <v>326.9789606098391</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6183378287949</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N15" t="n">
-        <v>667.0095683106035</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0179527551977</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P15" t="n">
-        <v>943.2842237880224</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q15" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R15" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S15" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="T15" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="U15" t="n">
-        <v>979.3795893175661</v>
+        <v>1001.536148768713</v>
       </c>
       <c r="V15" t="n">
-        <v>774.4064504568324</v>
+        <v>796.5630099079794</v>
       </c>
       <c r="W15" t="n">
-        <v>577.8850732900496</v>
+        <v>600.0416327411966</v>
       </c>
       <c r="X15" t="n">
-        <v>414.4077270567125</v>
+        <v>436.5642865078595</v>
       </c>
       <c r="Y15" t="n">
-        <v>274.7148384100049</v>
+        <v>436.5642865078595</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="C16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="D16" t="n">
-        <v>28.2819255074469</v>
+        <v>332.5983520555205</v>
       </c>
       <c r="E16" t="n">
-        <v>28.2819255074469</v>
+        <v>166.390146208374</v>
       </c>
       <c r="F16" t="n">
-        <v>28.2819255074469</v>
+        <v>166.390146208374</v>
       </c>
       <c r="G16" t="n">
-        <v>28.2819255074469</v>
+        <v>166.390146208374</v>
       </c>
       <c r="H16" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I16" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J16" t="n">
-        <v>52.18246991706593</v>
+        <v>52.18246991706604</v>
       </c>
       <c r="K16" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L16" t="n">
-        <v>175.7993050620774</v>
+        <v>175.7993050620778</v>
       </c>
       <c r="M16" t="n">
-        <v>251.7392267253733</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N16" t="n">
-        <v>327.1503147453033</v>
+        <v>327.1503147453039</v>
       </c>
       <c r="O16" t="n">
-        <v>393.5037832208841</v>
+        <v>393.5037832208848</v>
       </c>
       <c r="P16" t="n">
-        <v>447.1830681082847</v>
+        <v>447.1830681082855</v>
       </c>
       <c r="Q16" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="R16" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="S16" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="T16" t="n">
-        <v>308.4314780084253</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="U16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="V16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="W16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="X16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387637</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>941.173238076186</v>
+        <v>413.3570493519011</v>
       </c>
       <c r="C17" t="n">
-        <v>941.173238076186</v>
+        <v>413.3570493519011</v>
       </c>
       <c r="D17" t="n">
-        <v>941.173238076186</v>
+        <v>413.3570493519011</v>
       </c>
       <c r="E17" t="n">
-        <v>941.173238076186</v>
+        <v>413.3570493519011</v>
       </c>
       <c r="F17" t="n">
-        <v>584.0782190427655</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="G17" t="n">
-        <v>311.5438735753409</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H17" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I17" t="n">
-        <v>47.97023148689601</v>
+        <v>47.97023148689618</v>
       </c>
       <c r="J17" t="n">
-        <v>137.4855014315478</v>
+        <v>137.4855014315482</v>
       </c>
       <c r="K17" t="n">
-        <v>279.8906958536297</v>
+        <v>279.8906958536302</v>
       </c>
       <c r="L17" t="n">
-        <v>462.5534681648032</v>
+        <v>462.5534681648038</v>
       </c>
       <c r="M17" t="n">
-        <v>670.9472812939102</v>
+        <v>670.9472812939114</v>
       </c>
       <c r="N17" t="n">
-        <v>883.4628680500308</v>
+        <v>883.4628680500321</v>
       </c>
       <c r="O17" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P17" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q17" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461807</v>
       </c>
       <c r="R17" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="S17" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T17" t="n">
-        <v>1199.414048669897</v>
+        <v>1127.547087418743</v>
       </c>
       <c r="U17" t="n">
-        <v>941.173238076186</v>
+        <v>1127.547087418743</v>
       </c>
       <c r="V17" t="n">
-        <v>941.173238076186</v>
+        <v>770.4520683853223</v>
       </c>
       <c r="W17" t="n">
-        <v>941.173238076186</v>
+        <v>770.4520683853223</v>
       </c>
       <c r="X17" t="n">
-        <v>941.173238076186</v>
+        <v>413.3570493519011</v>
       </c>
       <c r="Y17" t="n">
-        <v>941.173238076186</v>
+        <v>413.3570493519011</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.28804965755235</v>
+        <v>344.1355930341008</v>
       </c>
       <c r="C18" t="n">
-        <v>74.28804965755235</v>
+        <v>226.6296895516056</v>
       </c>
       <c r="D18" t="n">
-        <v>74.28804965755235</v>
+        <v>226.6296895516056</v>
       </c>
       <c r="E18" t="n">
-        <v>74.28804965755235</v>
+        <v>121.9277558245428</v>
       </c>
       <c r="F18" t="n">
-        <v>74.28804965755235</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G18" t="n">
-        <v>74.28804965755235</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I18" t="n">
-        <v>38.02192457613894</v>
+        <v>38.02192457613902</v>
       </c>
       <c r="J18" t="n">
-        <v>88.27870598367114</v>
+        <v>88.2787059836713</v>
       </c>
       <c r="K18" t="n">
-        <v>186.8757092093128</v>
+        <v>186.8757092093131</v>
       </c>
       <c r="L18" t="n">
-        <v>326.9789606098386</v>
+        <v>326.978960609839</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6183378287949</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N18" t="n">
-        <v>667.0095683106035</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O18" t="n">
-        <v>822.0179527551977</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P18" t="n">
-        <v>943.2842237880224</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q18" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R18" t="n">
-        <v>1039.235935236963</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S18" t="n">
-        <v>972.0859925602164</v>
+        <v>972.0859925602177</v>
       </c>
       <c r="T18" t="n">
-        <v>833.2818977259649</v>
+        <v>972.0859925602177</v>
       </c>
       <c r="U18" t="n">
-        <v>648.5639057946996</v>
+        <v>809.276868267654</v>
       </c>
       <c r="V18" t="n">
-        <v>443.5907669339659</v>
+        <v>809.276868267654</v>
       </c>
       <c r="W18" t="n">
-        <v>247.0693897671831</v>
+        <v>612.7554911008712</v>
       </c>
       <c r="X18" t="n">
-        <v>83.59204353384598</v>
+        <v>612.7554911008712</v>
       </c>
       <c r="Y18" t="n">
-        <v>74.28804965755235</v>
+        <v>473.0626024541635</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.2819255074469</v>
+        <v>193.6033412467925</v>
       </c>
       <c r="C19" t="n">
-        <v>28.2819255074469</v>
+        <v>193.6033412467925</v>
       </c>
       <c r="D19" t="n">
-        <v>28.2819255074469</v>
+        <v>30.28656837356323</v>
       </c>
       <c r="E19" t="n">
-        <v>28.2819255074469</v>
+        <v>30.28656837356323</v>
       </c>
       <c r="F19" t="n">
-        <v>28.2819255074469</v>
+        <v>30.28656837356323</v>
       </c>
       <c r="G19" t="n">
-        <v>28.2819255074469</v>
+        <v>30.28656837356323</v>
       </c>
       <c r="H19" t="n">
-        <v>28.2819255074469</v>
+        <v>30.28656837356323</v>
       </c>
       <c r="I19" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J19" t="n">
-        <v>52.18246991706593</v>
+        <v>52.18246991706603</v>
       </c>
       <c r="K19" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L19" t="n">
-        <v>175.7993050620774</v>
+        <v>175.7993050620777</v>
       </c>
       <c r="M19" t="n">
-        <v>251.7392267253733</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N19" t="n">
-        <v>327.1503147453033</v>
+        <v>327.1503147453039</v>
       </c>
       <c r="O19" t="n">
-        <v>393.5037832208841</v>
+        <v>393.5037832208848</v>
       </c>
       <c r="P19" t="n">
-        <v>447.1830681082847</v>
+        <v>447.1830681082854</v>
       </c>
       <c r="Q19" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="R19" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="S19" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="T19" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="U19" t="n">
-        <v>309.993392899418</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="V19" t="n">
-        <v>28.2819255074469</v>
+        <v>193.6033412467925</v>
       </c>
       <c r="W19" t="n">
-        <v>28.2819255074469</v>
+        <v>193.6033412467925</v>
       </c>
       <c r="X19" t="n">
-        <v>28.2819255074469</v>
+        <v>193.6033412467925</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.2819255074469</v>
+        <v>193.6033412467925</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>668.6388926087614</v>
+        <v>1099.56698260771</v>
       </c>
       <c r="C20" t="n">
-        <v>311.5438735753409</v>
+        <v>1099.56698260771</v>
       </c>
       <c r="D20" t="n">
-        <v>311.5438735753409</v>
+        <v>1099.56698260771</v>
       </c>
       <c r="E20" t="n">
-        <v>311.5438735753409</v>
+        <v>742.4719635742892</v>
       </c>
       <c r="F20" t="n">
-        <v>311.5438735753409</v>
+        <v>385.3769445408681</v>
       </c>
       <c r="G20" t="n">
-        <v>311.5438735753409</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H20" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I20" t="n">
-        <v>47.97023148689588</v>
+        <v>47.97023148689618</v>
       </c>
       <c r="J20" t="n">
-        <v>137.4855014315477</v>
+        <v>137.4855014315481</v>
       </c>
       <c r="K20" t="n">
-        <v>279.8906958536296</v>
+        <v>279.8906958536301</v>
       </c>
       <c r="L20" t="n">
-        <v>462.5534681648029</v>
+        <v>462.5534681648036</v>
       </c>
       <c r="M20" t="n">
-        <v>670.94728129391</v>
+        <v>670.947281293911</v>
       </c>
       <c r="N20" t="n">
-        <v>883.4628680500304</v>
+        <v>883.4628680500317</v>
       </c>
       <c r="O20" t="n">
-        <v>1081.968330438571</v>
+        <v>1081.968330438573</v>
       </c>
       <c r="P20" t="n">
-        <v>1245.781737361425</v>
+        <v>1245.781737361427</v>
       </c>
       <c r="Q20" t="n">
-        <v>1360.970712461805</v>
+        <v>1360.970712461807</v>
       </c>
       <c r="R20" t="n">
-        <v>1414.096275372345</v>
+        <v>1414.096275372347</v>
       </c>
       <c r="S20" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="T20" t="n">
-        <v>1414.096275372345</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="U20" t="n">
-        <v>1155.855464778634</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="V20" t="n">
-        <v>1025.733911642182</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="W20" t="n">
-        <v>1025.733911642182</v>
+        <v>1342.229314121191</v>
       </c>
       <c r="X20" t="n">
-        <v>668.6388926087614</v>
+        <v>1099.56698260771</v>
       </c>
       <c r="Y20" t="n">
-        <v>668.6388926087614</v>
+        <v>1099.56698260771</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>247.0693897671826</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="C21" t="n">
-        <v>247.0693897671826</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="D21" t="n">
-        <v>247.0693897671826</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="E21" t="n">
-        <v>247.0693897671826</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="F21" t="n">
-        <v>167.5787183736589</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="G21" t="n">
-        <v>74.28804965755235</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I21" t="n">
-        <v>38.02192457613894</v>
+        <v>38.02192457613902</v>
       </c>
       <c r="J21" t="n">
-        <v>88.27870598367113</v>
+        <v>88.2787059836713</v>
       </c>
       <c r="K21" t="n">
-        <v>186.8757092093128</v>
+        <v>186.8757092093131</v>
       </c>
       <c r="L21" t="n">
-        <v>326.9789606098385</v>
+        <v>326.978960609839</v>
       </c>
       <c r="M21" t="n">
-        <v>493.6183378287948</v>
+        <v>493.6183378287956</v>
       </c>
       <c r="N21" t="n">
-        <v>667.0095683106034</v>
+        <v>667.0095683106044</v>
       </c>
       <c r="O21" t="n">
-        <v>822.0179527551976</v>
+        <v>822.0179527551988</v>
       </c>
       <c r="P21" t="n">
-        <v>943.2842237880221</v>
+        <v>943.2842237880236</v>
       </c>
       <c r="Q21" t="n">
-        <v>1016.235645108366</v>
+        <v>1016.235645108367</v>
       </c>
       <c r="R21" t="n">
-        <v>1039.235935236962</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="S21" t="n">
-        <v>972.0859925602159</v>
+        <v>1039.235935236964</v>
       </c>
       <c r="T21" t="n">
-        <v>833.2818977259644</v>
+        <v>900.4318404027125</v>
       </c>
       <c r="U21" t="n">
-        <v>648.5639057946992</v>
+        <v>715.7138484714471</v>
       </c>
       <c r="V21" t="n">
-        <v>443.5907669339654</v>
+        <v>510.7407096107134</v>
       </c>
       <c r="W21" t="n">
-        <v>247.0693897671826</v>
+        <v>314.2193324439306</v>
       </c>
       <c r="X21" t="n">
-        <v>247.0693897671826</v>
+        <v>296.9018235742172</v>
       </c>
       <c r="Y21" t="n">
-        <v>247.0693897671826</v>
+        <v>157.2089349275097</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="C22" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="D22" t="n">
-        <v>28.2819255074469</v>
+        <v>311.9980357655343</v>
       </c>
       <c r="E22" t="n">
-        <v>28.2819255074469</v>
+        <v>311.9980357655343</v>
       </c>
       <c r="F22" t="n">
-        <v>28.2819255074469</v>
+        <v>140.1362615400948</v>
       </c>
       <c r="G22" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="H22" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="I22" t="n">
-        <v>28.2819255074469</v>
+        <v>28.28192550744695</v>
       </c>
       <c r="J22" t="n">
-        <v>52.18246991706593</v>
+        <v>52.18246991706603</v>
       </c>
       <c r="K22" t="n">
-        <v>104.2768025790822</v>
+        <v>104.2768025790824</v>
       </c>
       <c r="L22" t="n">
-        <v>175.7993050620774</v>
+        <v>175.7993050620777</v>
       </c>
       <c r="M22" t="n">
-        <v>251.7392267253733</v>
+        <v>251.7392267253738</v>
       </c>
       <c r="N22" t="n">
-        <v>327.1503147453033</v>
+        <v>327.1503147453039</v>
       </c>
       <c r="O22" t="n">
-        <v>393.503783220884</v>
+        <v>393.5037832208848</v>
       </c>
       <c r="P22" t="n">
-        <v>447.1830681082846</v>
+        <v>447.1830681082854</v>
       </c>
       <c r="Q22" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="R22" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="S22" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="T22" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="U22" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="V22" t="n">
-        <v>475.3148086387628</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="W22" t="n">
-        <v>200.4624048112758</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="X22" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387636</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.2819255074469</v>
+        <v>475.3148086387636</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="C23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="D23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="E23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="F23" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G23" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H23" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I23" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J23" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K23" t="n">
-        <v>517.9745679998221</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L23" t="n">
-        <v>836.7412585230807</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N23" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O23" t="n">
         <v>1906.806429336001</v>
       </c>
       <c r="P23" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q23" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R23" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S23" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T23" t="n">
         <v>2247.627653696034</v>
       </c>
       <c r="U23" t="n">
-        <v>1989.457241469475</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V23" t="n">
         <v>1631.967826595725</v>
       </c>
       <c r="W23" t="n">
-        <v>1235.576476896071</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="X23" t="n">
-        <v>1131.825418762752</v>
+        <v>1235.576476896072</v>
       </c>
       <c r="Y23" t="n">
-        <v>726.4881487176426</v>
+        <v>830.2392068509622</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>184.4841739339245</v>
       </c>
       <c r="G24" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H24" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I24" t="n">
         <v>75.83346633145928</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>605.9181947141356</v>
+        <v>394.0397812685917</v>
       </c>
       <c r="C25" t="n">
-        <v>605.9181947141356</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="D25" t="n">
-        <v>605.9181947141356</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="E25" t="n">
-        <v>590.5471013329366</v>
+        <v>222.0672181475077</v>
       </c>
       <c r="F25" t="n">
-        <v>418.685327107497</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G25" t="n">
-        <v>253.4628459276413</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H25" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I25" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J25" t="n">
         <v>101.4579413382349</v>
@@ -6174,25 +6174,25 @@
         <v>880.7705985416225</v>
       </c>
       <c r="S25" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="T25" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="U25" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="V25" t="n">
-        <v>880.7705985416225</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="W25" t="n">
-        <v>605.9181947141356</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="X25" t="n">
-        <v>605.9181947141356</v>
+        <v>728.6638647350633</v>
       </c>
       <c r="Y25" t="n">
-        <v>605.9181947141356</v>
+        <v>584.2057499806574</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1152.465088569785</v>
+        <v>1212.119462304195</v>
       </c>
       <c r="C26" t="n">
-        <v>1152.465088569785</v>
+        <v>1212.119462304195</v>
       </c>
       <c r="D26" t="n">
-        <v>1152.465088569785</v>
+        <v>1212.119462304195</v>
       </c>
       <c r="E26" t="n">
-        <v>726.4881487176426</v>
+        <v>877.3624734303589</v>
       </c>
       <c r="F26" t="n">
-        <v>726.4881487176426</v>
+        <v>452.2382916197591</v>
       </c>
       <c r="G26" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H26" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J26" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K26" t="n">
-        <v>517.9745679998225</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L26" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M26" t="n">
         <v>1196.576905080624</v>
@@ -6247,31 +6247,31 @@
         <v>2194.643812107885</v>
       </c>
       <c r="Q26" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R26" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S26" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T26" t="n">
         <v>2247.627653696034</v>
       </c>
       <c r="U26" t="n">
-        <v>1989.457241469475</v>
+        <v>1989.457241469476</v>
       </c>
       <c r="V26" t="n">
         <v>1631.967826595725</v>
       </c>
       <c r="W26" t="n">
-        <v>1235.576476896071</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="X26" t="n">
-        <v>1152.465088569785</v>
+        <v>1631.967826595725</v>
       </c>
       <c r="Y26" t="n">
-        <v>1152.465088569785</v>
+        <v>1631.967826595725</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452933</v>
       </c>
       <c r="C27" t="n">
-        <v>1179.176727910352</v>
+        <v>486.671896462798</v>
       </c>
       <c r="D27" t="n">
-        <v>1075.336769425637</v>
+        <v>382.831937978083</v>
       </c>
       <c r="E27" t="n">
-        <v>970.6348356985744</v>
+        <v>278.1300042510202</v>
       </c>
       <c r="F27" t="n">
-        <v>876.9890053814786</v>
+        <v>184.4841739339244</v>
       </c>
       <c r="G27" t="n">
-        <v>784.1691672541758</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H27" t="n">
-        <v>742.710275369622</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I27" t="n">
-        <v>768.3382977790131</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J27" t="n">
-        <v>862.1930296046344</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K27" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266099</v>
       </c>
       <c r="L27" t="n">
-        <v>1275.60487032199</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M27" t="n">
-        <v>1559.167955616384</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N27" t="n">
-        <v>1852.577516809035</v>
+        <v>1160.072685361481</v>
       </c>
       <c r="O27" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P27" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q27" t="n">
-        <v>2458.620841209086</v>
+        <v>1766.116009761532</v>
       </c>
       <c r="R27" t="n">
-        <v>2510.272196103407</v>
+        <v>1817.767364655853</v>
       </c>
       <c r="S27" t="n">
-        <v>2451.867725109046</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T27" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U27" t="n">
-        <v>2130.274391720471</v>
+        <v>1437.769560272917</v>
       </c>
       <c r="V27" t="n">
-        <v>1925.301252859737</v>
+        <v>1232.796421412183</v>
       </c>
       <c r="W27" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X27" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1425.60964081291</v>
+        <v>733.104809365356</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J28" t="n">
-        <v>1730.95953890002</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K28" t="n">
-        <v>1828.00153253975</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L28" t="n">
-        <v>1957.041566136167</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M28" t="n">
-        <v>2093.625659805622</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N28" t="n">
-        <v>2228.238936967794</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O28" t="n">
-        <v>2349.275209268218</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P28" t="n">
-        <v>2449.745079574046</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S28" t="n">
-        <v>2510.272196103407</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T28" t="n">
-        <v>2271.352935667296</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U28" t="n">
-        <v>2236.270912703311</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V28" t="n">
-        <v>1954.55944531134</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y28" t="n">
-        <v>1679.707041483853</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.106173908768</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="C29" t="n">
-        <v>50.20544392206814</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="D29" t="n">
-        <v>50.20544392206814</v>
+        <v>869.5643855251985</v>
       </c>
       <c r="E29" t="n">
-        <v>50.20544392206814</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="F29" t="n">
-        <v>50.20544392206814</v>
+        <v>726.4881487176426</v>
       </c>
       <c r="G29" t="n">
-        <v>50.20544392206814</v>
+        <v>324.4553010199517</v>
       </c>
       <c r="H29" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I29" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J29" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K29" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L29" t="n">
-        <v>836.7412585230816</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M29" t="n">
         <v>1196.576905080624</v>
@@ -6484,31 +6484,31 @@
         <v>2194.643812107885</v>
       </c>
       <c r="Q29" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R29" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S29" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T29" t="n">
-        <v>2510.272196103407</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U29" t="n">
-        <v>2252.101783876848</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V29" t="n">
-        <v>1894.612369003098</v>
+        <v>2100.968354872104</v>
       </c>
       <c r="W29" t="n">
-        <v>1498.221019303445</v>
+        <v>1704.577005172451</v>
       </c>
       <c r="X29" t="n">
-        <v>1086.501020471192</v>
+        <v>1292.857006340198</v>
       </c>
       <c r="Y29" t="n">
-        <v>681.1637504260824</v>
+        <v>1292.857006340198</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D30" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E30" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F30" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G30" t="n">
-        <v>91.66433580662161</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H30" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I30" t="n">
         <v>75.83346633145928</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>167.9127114225341</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9127114225341</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D31" t="n">
-        <v>167.9127114225341</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E31" t="n">
-        <v>167.9127114225341</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F31" t="n">
-        <v>167.9127114225341</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9127114225341</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H31" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I31" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J31" t="n">
         <v>101.4579413382349</v>
@@ -6657,16 +6657,16 @@
         <v>600.6425766887946</v>
       </c>
       <c r="V31" t="n">
-        <v>600.6425766887946</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W31" t="n">
-        <v>600.6425766887946</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X31" t="n">
-        <v>358.0786801345997</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y31" t="n">
-        <v>358.0786801345997</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2427.782621182084</v>
+        <v>1221.552136576963</v>
       </c>
       <c r="C32" t="n">
-        <v>2000.881891195384</v>
+        <v>1221.552136576963</v>
       </c>
       <c r="D32" t="n">
-        <v>1577.589270380385</v>
+        <v>798.2595157619628</v>
       </c>
       <c r="E32" t="n">
-        <v>1151.612330528242</v>
+        <v>798.2595157619628</v>
       </c>
       <c r="F32" t="n">
-        <v>726.4881487176426</v>
+        <v>373.135333951363</v>
       </c>
       <c r="G32" t="n">
         <v>324.4553010199517</v>
@@ -6697,19 +6697,19 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1440473010161</v>
+        <v>103.1440473010166</v>
       </c>
       <c r="J32" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853083</v>
       </c>
       <c r="K32" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998227</v>
       </c>
       <c r="L32" t="n">
-        <v>836.7412585230809</v>
+        <v>836.7412585230816</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.576905080623</v>
+        <v>1196.576905080624</v>
       </c>
       <c r="N32" t="n">
         <v>1562.984812457614</v>
@@ -6718,7 +6718,7 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P32" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q32" t="n">
         <v>2402.969627965677</v>
@@ -6727,25 +6727,25 @@
         <v>2510.272196103408</v>
       </c>
       <c r="S32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="V32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="W32" t="n">
-        <v>2510.272196103408</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.272196103408</v>
+        <v>2046.737770913602</v>
       </c>
       <c r="Y32" t="n">
-        <v>2510.272196103408</v>
+        <v>1641.400500868493</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1296.682631392847</v>
+        <v>604.1777999452937</v>
       </c>
       <c r="C33" t="n">
-        <v>1179.176727910352</v>
+        <v>486.6718964627985</v>
       </c>
       <c r="D33" t="n">
-        <v>1075.336769425637</v>
+        <v>382.8319379780834</v>
       </c>
       <c r="E33" t="n">
-        <v>970.6348356985745</v>
+        <v>278.1300042510206</v>
       </c>
       <c r="F33" t="n">
-        <v>876.9890053814787</v>
+        <v>184.4841739339248</v>
       </c>
       <c r="G33" t="n">
-        <v>784.1691672541759</v>
+        <v>91.66433580662169</v>
       </c>
       <c r="H33" t="n">
-        <v>742.7102753696224</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I33" t="n">
-        <v>768.3382977790136</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J33" t="n">
-        <v>862.1930296046348</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K33" t="n">
-        <v>1035.305874274164</v>
+        <v>342.8010428266101</v>
       </c>
       <c r="L33" t="n">
-        <v>1275.60487032199</v>
+        <v>583.1000388744363</v>
       </c>
       <c r="M33" t="n">
-        <v>1559.167955616384</v>
+        <v>866.6631241688304</v>
       </c>
       <c r="N33" t="n">
-        <v>1852.577516809036</v>
+        <v>1160.072685361482</v>
       </c>
       <c r="O33" t="n">
-        <v>2117.379226369923</v>
+        <v>1424.874394922369</v>
       </c>
       <c r="P33" t="n">
-        <v>2326.764320359099</v>
+        <v>1634.259488911545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2458.620841209087</v>
+        <v>1766.116009761533</v>
       </c>
       <c r="R33" t="n">
-        <v>2510.272196103408</v>
+        <v>1817.767364655854</v>
       </c>
       <c r="S33" t="n">
-        <v>2451.867725109046</v>
+        <v>1759.362893661493</v>
       </c>
       <c r="T33" t="n">
-        <v>2314.961407955105</v>
+        <v>1622.456576507551</v>
       </c>
       <c r="U33" t="n">
-        <v>2130.274391720471</v>
+        <v>1437.769560272918</v>
       </c>
       <c r="V33" t="n">
-        <v>1925.301252859738</v>
+        <v>1232.796421412184</v>
       </c>
       <c r="W33" t="n">
-        <v>1728.779875692955</v>
+        <v>1036.275044245401</v>
       </c>
       <c r="X33" t="n">
-        <v>1565.302529459618</v>
+        <v>872.7976980120641</v>
       </c>
       <c r="Y33" t="n">
-        <v>1425.60964081291</v>
+        <v>733.1048093653565</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J34" t="n">
-        <v>1730.959538900021</v>
+        <v>101.4579413382349</v>
       </c>
       <c r="K34" t="n">
-        <v>1828.001532539751</v>
+        <v>198.4999349779649</v>
       </c>
       <c r="L34" t="n">
-        <v>1957.041566136168</v>
+        <v>327.539968574382</v>
       </c>
       <c r="M34" t="n">
-        <v>2093.625659805623</v>
+        <v>464.1240622438374</v>
       </c>
       <c r="N34" t="n">
-        <v>2228.238936967795</v>
+        <v>598.7373394060097</v>
       </c>
       <c r="O34" t="n">
-        <v>2349.275209268219</v>
+        <v>719.7736117064335</v>
       </c>
       <c r="P34" t="n">
-        <v>2449.745079574047</v>
+        <v>820.2434820122616</v>
       </c>
       <c r="Q34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="R34" t="n">
-        <v>2510.272196103408</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S34" t="n">
-        <v>2358.165462296849</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T34" t="n">
-        <v>2119.246201860737</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U34" t="n">
-        <v>1922.270938038049</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V34" t="n">
-        <v>1922.270938038049</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W34" t="n">
-        <v>1922.270938038049</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y34" t="n">
-        <v>1679.707041483854</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1026.050669659741</v>
+        <v>1017.612308308906</v>
       </c>
       <c r="C35" t="n">
-        <v>1026.050669659741</v>
+        <v>590.7115783222059</v>
       </c>
       <c r="D35" t="n">
-        <v>602.7580488447413</v>
+        <v>590.7115783222059</v>
       </c>
       <c r="E35" t="n">
-        <v>324.4553010199516</v>
+        <v>590.7115783222059</v>
       </c>
       <c r="F35" t="n">
-        <v>324.4553010199516</v>
+        <v>165.5873965116061</v>
       </c>
       <c r="G35" t="n">
-        <v>324.4553010199516</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H35" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I35" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J35" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K35" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L35" t="n">
-        <v>836.7412585230811</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M35" t="n">
         <v>1196.576905080624</v>
@@ -6955,34 +6955,34 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P35" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q35" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R35" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S35" t="n">
-        <v>2458.457769745854</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.627653696034</v>
+        <v>2458.457769745855</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.627653696034</v>
+        <v>2200.287357519296</v>
       </c>
       <c r="V35" t="n">
-        <v>2247.627653696034</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="W35" t="n">
-        <v>1851.236303996381</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="X35" t="n">
-        <v>1851.236303996381</v>
+        <v>1842.797942645546</v>
       </c>
       <c r="Y35" t="n">
-        <v>1445.899033951271</v>
+        <v>1437.460672600436</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D36" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E36" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F36" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G36" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H36" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I36" t="n">
         <v>75.83346633145928</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5196644540206</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C37" t="n">
-        <v>590.5471013329366</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D37" t="n">
-        <v>590.5471013329366</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E37" t="n">
-        <v>590.5471013329366</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F37" t="n">
-        <v>418.685327107497</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G37" t="n">
-        <v>253.4628459276413</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I37" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J37" t="n">
         <v>101.4579413382349</v>
@@ -7119,28 +7119,28 @@
         <v>880.7705985416225</v>
       </c>
       <c r="R37" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="S37" t="n">
-        <v>880.2463511302651</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="T37" t="n">
-        <v>762.5196644540206</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="U37" t="n">
-        <v>762.5196644540206</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="V37" t="n">
-        <v>762.5196644540206</v>
+        <v>880.7705985416225</v>
       </c>
       <c r="W37" t="n">
-        <v>762.5196644540206</v>
+        <v>605.9181947141356</v>
       </c>
       <c r="X37" t="n">
-        <v>762.5196644540206</v>
+        <v>363.3542981599406</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5196644540206</v>
+        <v>240.3714126341338</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>324.4553010199517</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="C38" t="n">
-        <v>324.4553010199517</v>
+        <v>1820.726923709335</v>
       </c>
       <c r="D38" t="n">
-        <v>324.4553010199517</v>
+        <v>1397.434302894335</v>
       </c>
       <c r="E38" t="n">
-        <v>324.4553010199517</v>
+        <v>971.4573630421925</v>
       </c>
       <c r="F38" t="n">
-        <v>324.4553010199517</v>
+        <v>546.3331812315927</v>
       </c>
       <c r="G38" t="n">
         <v>324.4553010199517</v>
@@ -7174,13 +7174,13 @@
         <v>103.1440473010161</v>
       </c>
       <c r="J38" t="n">
-        <v>265.8602102853079</v>
+        <v>265.8602102853081</v>
       </c>
       <c r="K38" t="n">
-        <v>517.9745679998223</v>
+        <v>517.9745679998226</v>
       </c>
       <c r="L38" t="n">
-        <v>836.741258523081</v>
+        <v>836.7412585230813</v>
       </c>
       <c r="M38" t="n">
         <v>1196.576905080624</v>
@@ -7207,19 +7207,19 @@
         <v>2247.627653696034</v>
       </c>
       <c r="U38" t="n">
-        <v>1989.457241469476</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="V38" t="n">
-        <v>1631.967826595725</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="W38" t="n">
-        <v>1235.576476896072</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="X38" t="n">
-        <v>823.8564780638192</v>
+        <v>2247.627653696034</v>
       </c>
       <c r="Y38" t="n">
-        <v>418.5192080187095</v>
+        <v>2247.627653696034</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>184.4841739339244</v>
       </c>
       <c r="G39" t="n">
-        <v>91.66433580662168</v>
+        <v>91.66433580662161</v>
       </c>
       <c r="H39" t="n">
         <v>50.20544392206816</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83346633145936</v>
+        <v>75.83346633145928</v>
       </c>
       <c r="J39" t="n">
-        <v>169.6881981570806</v>
+        <v>169.6881981570805</v>
       </c>
       <c r="K39" t="n">
         <v>342.8010428266099</v>
       </c>
       <c r="L39" t="n">
-        <v>583.1000388744361</v>
+        <v>583.100038874436</v>
       </c>
       <c r="M39" t="n">
-        <v>866.6631241688302</v>
+        <v>866.66312416883</v>
       </c>
       <c r="N39" t="n">
         <v>1160.072685361481</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>654.4278302313645</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C40" t="n">
-        <v>654.4278302313645</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D40" t="n">
-        <v>654.4278302313645</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E40" t="n">
-        <v>590.5471013329367</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F40" t="n">
-        <v>418.6853271074971</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G40" t="n">
-        <v>253.4628459276414</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8641208752695</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I40" t="n">
         <v>50.20544392206816</v>
@@ -7365,19 +7365,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U40" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V40" t="n">
-        <v>880.7705985416225</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W40" t="n">
-        <v>880.7705985416225</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X40" t="n">
-        <v>880.7705985416225</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y40" t="n">
-        <v>654.4278302313645</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2090.423831811877</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="C41" t="n">
-        <v>1663.523101825177</v>
+        <v>1614.370937840328</v>
       </c>
       <c r="D41" t="n">
-        <v>1240.230481010177</v>
+        <v>1191.078317025329</v>
       </c>
       <c r="E41" t="n">
-        <v>814.2535411580349</v>
+        <v>765.1013771731863</v>
       </c>
       <c r="F41" t="n">
-        <v>389.1293593474351</v>
+        <v>339.9771953625865</v>
       </c>
       <c r="G41" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H41" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I41" t="n">
         <v>103.1440473010161</v>
       </c>
       <c r="J41" t="n">
-        <v>265.8602102853074</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K41" t="n">
-        <v>517.9745679998218</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L41" t="n">
-        <v>836.7412585230807</v>
+        <v>836.741258523081</v>
       </c>
       <c r="M41" t="n">
         <v>1196.576905080623</v>
       </c>
       <c r="N41" t="n">
-        <v>1562.984812457613</v>
+        <v>1562.984812457614</v>
       </c>
       <c r="O41" t="n">
-        <v>1906.806429336001</v>
+        <v>1906.806429336002</v>
       </c>
       <c r="P41" t="n">
-        <v>2194.643812107884</v>
+        <v>2194.643812107885</v>
       </c>
       <c r="Q41" t="n">
-        <v>2402.969627965676</v>
+        <v>2402.969627965677</v>
       </c>
       <c r="R41" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="S41" t="n">
-        <v>2510.272196103407</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="T41" t="n">
-        <v>2510.272196103407</v>
+        <v>2299.442080053587</v>
       </c>
       <c r="U41" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="V41" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="W41" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="X41" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
       <c r="Y41" t="n">
-        <v>2510.272196103407</v>
+        <v>2041.271667827028</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         <v>486.671896462798</v>
       </c>
       <c r="D42" t="n">
-        <v>382.831937978083</v>
+        <v>382.8319379780831</v>
       </c>
       <c r="E42" t="n">
-        <v>278.1300042510202</v>
+        <v>278.1300042510203</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4841739339244</v>
+        <v>184.4841739339245</v>
       </c>
       <c r="G42" t="n">
-        <v>91.66433580662166</v>
+        <v>91.66433580662168</v>
       </c>
       <c r="H42" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I42" t="n">
         <v>75.83346633145928</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.7522260020699</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C43" t="n">
-        <v>415.7522260020699</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="D43" t="n">
-        <v>415.7522260020699</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="E43" t="n">
-        <v>387.2896993273635</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="F43" t="n">
-        <v>215.4279251019238</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="G43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="H43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="I43" t="n">
-        <v>50.20544392206814</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="J43" t="n">
         <v>101.4579413382349</v>
@@ -7602,19 +7602,19 @@
         <v>880.7705985416225</v>
       </c>
       <c r="U43" t="n">
-        <v>880.7705985416225</v>
+        <v>600.6425766887946</v>
       </c>
       <c r="V43" t="n">
-        <v>880.7705985416225</v>
+        <v>325.0578477495551</v>
       </c>
       <c r="W43" t="n">
-        <v>605.9181947141356</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X43" t="n">
-        <v>605.9181947141356</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y43" t="n">
-        <v>605.9181947141356</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1328.20729557151</v>
+        <v>1751.49991638651</v>
       </c>
       <c r="C44" t="n">
-        <v>901.3065655848104</v>
+        <v>1324.59918639981</v>
       </c>
       <c r="D44" t="n">
         <v>901.3065655848104</v>
@@ -7645,19 +7645,19 @@
         <v>50.20544392206816</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1440473010165</v>
+        <v>103.1440473010161</v>
       </c>
       <c r="J44" t="n">
-        <v>265.8602102853083</v>
+        <v>265.8602102853079</v>
       </c>
       <c r="K44" t="n">
-        <v>517.9745679998227</v>
+        <v>517.9745679998223</v>
       </c>
       <c r="L44" t="n">
-        <v>836.7412585230813</v>
+        <v>836.7412585230809</v>
       </c>
       <c r="M44" t="n">
-        <v>1196.576905080624</v>
+        <v>1196.576905080623</v>
       </c>
       <c r="N44" t="n">
         <v>1562.984812457614</v>
@@ -7666,10 +7666,10 @@
         <v>1906.806429336001</v>
       </c>
       <c r="P44" t="n">
-        <v>2194.643812107885</v>
+        <v>2194.643812107884</v>
       </c>
       <c r="Q44" t="n">
-        <v>2402.969627965677</v>
+        <v>2402.969627965676</v>
       </c>
       <c r="R44" t="n">
         <v>2510.272196103408</v>
@@ -7678,22 +7678,22 @@
         <v>2510.272196103408</v>
       </c>
       <c r="T44" t="n">
-        <v>2299.442080053587</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="U44" t="n">
-        <v>2299.442080053587</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="V44" t="n">
-        <v>1941.952665179837</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="W44" t="n">
-        <v>1733.54456561662</v>
+        <v>2510.272196103408</v>
       </c>
       <c r="X44" t="n">
-        <v>1733.54456561662</v>
+        <v>2171.34828067804</v>
       </c>
       <c r="Y44" t="n">
-        <v>1328.20729557151</v>
+        <v>2171.34828067804</v>
       </c>
     </row>
     <row r="45">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>222.1780070431521</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="C46" t="n">
         <v>50.20544392206816</v>
@@ -7842,16 +7842,16 @@
         <v>600.6425766887946</v>
       </c>
       <c r="V46" t="n">
-        <v>412.3439757552178</v>
+        <v>318.9311092968235</v>
       </c>
       <c r="W46" t="n">
-        <v>412.3439757552178</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="X46" t="n">
-        <v>412.3439757552178</v>
+        <v>50.20544392206816</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.3439757552178</v>
+        <v>50.20544392206816</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>402.1400871565634</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22567,7 +22567,7 @@
         <v>291.7043547567607</v>
       </c>
       <c r="I2" t="n">
-        <v>4.338596154314494</v>
+        <v>22.55690342461459</v>
       </c>
       <c r="J2" t="n">
         <v>3.021643902788007</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.536891551628983</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>15.49488714450009</v>
       </c>
       <c r="S2" t="n">
-        <v>96.23601616822083</v>
+        <v>78.01770889792073</v>
       </c>
       <c r="T2" t="n">
         <v>217.3547797125806</v>
@@ -22609,10 +22609,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>376.3807511589762</v>
+        <v>374.2091289323565</v>
       </c>
       <c r="X2" t="n">
-        <v>389.3844915736301</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>383.0655900743585</v>
@@ -22649,7 +22649,7 @@
         <v>10.44271547525859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.888458418784966</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>1.504190801070983</v>
       </c>
       <c r="R3" t="n">
-        <v>2.182307219536769</v>
+        <v>13.34053384443212</v>
       </c>
       <c r="S3" t="n">
-        <v>77.41990205371728</v>
+        <v>61.37321701003695</v>
       </c>
       <c r="T3" t="n">
         <v>139.7903633642173</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9095657031111</v>
+        <v>164.691258432811</v>
       </c>
       <c r="V3" t="n">
-        <v>184.7051002018263</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
         <v>176.3378561248149</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>143.6242655007036</v>
       </c>
       <c r="Y3" t="n">
-        <v>120.0776524899404</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -22737,7 +22737,7 @@
         <v>1.176308884163522</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1163097641238728</v>
+        <v>0.7054336060544593</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>240.3098339603297</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3749939678559</v>
+        <v>276.7858701259253</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -22786,28 +22786,28 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>399.1220097277885</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>395.5499816478053</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>413.3193638651617</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>378.7643416131366</v>
+        <v>399.9626175572692</v>
       </c>
       <c r="H5" t="n">
-        <v>267.969090157106</v>
+        <v>291.4788031161503</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.152398102006444</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.1585647136001427</v>
       </c>
       <c r="R5" t="n">
-        <v>14.11143217127993</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.22443497918415</v>
+        <v>95.73414793822852</v>
       </c>
       <c r="T5" t="n">
         <v>217.2583703575925</v>
@@ -22871,22 +22871,22 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>80.14520143074776</v>
       </c>
       <c r="F6" t="n">
-        <v>69.19965905488051</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>69.42532138281301</v>
+        <v>82.26468072757503</v>
       </c>
       <c r="H6" t="n">
-        <v>30.41394296687471</v>
+        <v>51.12129814120099</v>
       </c>
       <c r="I6" t="n">
-        <v>10.03700156004394</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.775148425455182</v>
+        <v>3.775148425455178</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>139.7428664103214</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9087904535916</v>
+        <v>159.3990774945472</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -22965,10 +22965,10 @@
         <v>94.27811752316894</v>
       </c>
       <c r="J7" t="n">
-        <v>10.07441202240546</v>
+        <v>10.07441202240545</v>
       </c>
       <c r="K7" t="n">
-        <v>3.607478700117923</v>
+        <v>3.60747870011792</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,13 +22980,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.382648484235656</v>
+        <v>1.382648484235652</v>
       </c>
       <c r="P7" t="n">
-        <v>4.31195353650671</v>
+        <v>4.311953536506707</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.925796570928313</v>
+        <v>12.10962959912422</v>
       </c>
       <c r="R7" t="n">
         <v>39.85081002223924</v>
@@ -23001,7 +23001,7 @@
         <v>277.3744551058947</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>275.7105196898555</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -23032,19 +23032,19 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>397.643581016995</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>376.0986545356089</v>
+        <v>399.961149212524</v>
       </c>
       <c r="H8" t="n">
-        <v>267.6012707536137</v>
+        <v>291.4637654305288</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>21.65122101284321</v>
       </c>
       <c r="J8" t="n">
-        <v>1.027774177190942</v>
+        <v>1.027774177190938</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.01919626068105</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>95.70068803234793</v>
+        <v>71.83819335543278</v>
       </c>
       <c r="T8" t="n">
         <v>217.2519426784705</v>
@@ -23080,16 +23080,16 @@
         <v>255.7445985036381</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>330.0520260480978</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>368.5649415257414</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>394.2850082939128</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258621</v>
+        <v>106.6196540144352</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
@@ -23114,16 +23114,16 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G9" t="n">
-        <v>69.07175403124205</v>
+        <v>92.93424870815717</v>
       </c>
       <c r="H9" t="n">
-        <v>27.25121589670751</v>
+        <v>51.11371057362263</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.00995232957614</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.700923269594419</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,16 +23150,16 @@
         <v>12.56012682656195</v>
       </c>
       <c r="S9" t="n">
-        <v>77.18643047130134</v>
+        <v>77.18643047130132</v>
       </c>
       <c r="T9" t="n">
-        <v>139.7396997551877</v>
+        <v>115.8772050782726</v>
       </c>
       <c r="U9" t="n">
-        <v>182.908738767164</v>
+        <v>159.0462440902488</v>
       </c>
       <c r="V9" t="n">
-        <v>195.6161977598701</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
         <v>170.6936687181998</v>
@@ -23184,7 +23184,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>158.2038205484227</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -23202,10 +23202,10 @@
         <v>94.25831015433721</v>
       </c>
       <c r="J10" t="n">
-        <v>10.02784554495553</v>
+        <v>10.02784554495552</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530955673011054</v>
+        <v>3.53095567301105</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23217,13 +23217,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.289551455639597</v>
+        <v>1.289551455639593</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7525083494598661</v>
+        <v>4.232292945534109</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.05447673506465</v>
+        <v>12.05447673506464</v>
       </c>
       <c r="R10" t="n">
         <v>39.82119477246847</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.12581180552837</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>69.1076538437465</v>
+        <v>69.10765384374599</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>68.19310161053414</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.8836990142266</v>
+        <v>343.15810166501</v>
       </c>
       <c r="H11" t="n">
         <v>280.4293285872151</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.14829163864469</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.5354044354234</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>228.3485506067785</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>38.9033673595697</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>98.75029874134729</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.4784432499788</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T12" t="n">
-        <v>137.416053885909</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>182.8708120119527</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>174.8884803088058</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="13">
@@ -23421,22 +23421,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>113.3354401014488</v>
+        <v>47.62821226515982</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.7271384939178</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.0899515865041</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.3959181317836</v>
       </c>
       <c r="T13" t="n">
         <v>238.199769595833</v>
@@ -23503,16 +23503,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>68.19310161053471</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>67.34887114940744</v>
+        <v>67.34887114940688</v>
       </c>
       <c r="G14" t="n">
-        <v>45.35963017114029</v>
+        <v>45.35963017113971</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.14829163864474</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.5354044354234</v>
@@ -23554,13 +23554,13 @@
         <v>255.6584024877743</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>113.6788125266669</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>38.9033673595697</v>
       </c>
       <c r="X14" t="n">
-        <v>376.6481275941548</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F15" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>92.35776202894547</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>45.54606290860439</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>66.4784432499788</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T15" t="n">
         <v>137.416053885909</v>
       </c>
       <c r="U15" t="n">
-        <v>123.6130295517501</v>
+        <v>145.5480234083844</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="16">
@@ -23658,10 +23658,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>20.39431312708618</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -23670,10 +23670,10 @@
         <v>163.9610376319913</v>
       </c>
       <c r="H16" t="n">
-        <v>136.7271384939178</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>79.7239485572547</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.08995158650413</v>
+        <v>18.08995158650409</v>
       </c>
       <c r="S16" t="n">
         <v>157.3959181317836</v>
       </c>
       <c r="T16" t="n">
-        <v>72.98527227179891</v>
+        <v>238.199769595833</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3480569759686</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>67.34887114940744</v>
+        <v>393.172636229571</v>
       </c>
       <c r="G17" t="n">
-        <v>129.0746970014763</v>
+        <v>45.35963017113971</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.14829163864474</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6584024877743</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0.3904518819261398</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>54.07873000084334</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>92.35776202894547</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>137.416053885909</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>21.68977896231456</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>129.0850058227098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23910,7 +23910,7 @@
         <v>136.7271384939178</v>
       </c>
       <c r="I19" t="n">
-        <v>79.7239485572547</v>
+        <v>77.73935211979958</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.08995158650413</v>
+        <v>18.0899515865041</v>
       </c>
       <c r="S19" t="n">
         <v>157.3959181317836</v>
@@ -23946,7 +23946,7 @@
         <v>238.199769595833</v>
       </c>
       <c r="U19" t="n">
-        <v>113.6798553940172</v>
+        <v>277.3480569759686</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>69.10765384374656</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>68.19310161053414</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>67.34887114940688</v>
       </c>
       <c r="G20" t="n">
-        <v>398.8836990142266</v>
+        <v>45.35963017113971</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>280.4293285872151</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.14829163864474</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.5354044354234</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6584024877743</v>
       </c>
       <c r="V20" t="n">
-        <v>225.0941831199254</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>54.0787300008439</v>
+        <v>167.3670906455841</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>116.3308444476703</v>
@@ -24059,13 +24059,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>14.01360733433638</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>92.35776202894547</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>45.54606290860438</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>66.47844324997877</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>144.6982389899875</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,22 +24132,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9610376319913</v>
+        <v>53.22524495967001</v>
       </c>
       <c r="H22" t="n">
         <v>136.7271384939178</v>
       </c>
       <c r="I22" t="n">
-        <v>79.72394855725472</v>
+        <v>79.72394855725469</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.08995158650414</v>
+        <v>18.0899515865041</v>
       </c>
       <c r="S22" t="n">
         <v>157.3959181317836</v>
@@ -24189,10 +24189,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>69.67958307786233</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>41.42897456972372</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>304.8892512919442</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>149.328741341288</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S25" t="n">
-        <v>150.5856664684936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>236.5300678317505</v>
@@ -24426,13 +24426,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>81.06580702029356</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24451,16 +24451,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>90.30775146852341</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>325.3225244009068</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24654,16 +24654,16 @@
         <v>150.5856664684936</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U28" t="n">
-        <v>242.5955388999545</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.6328798964735</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>280.0716960141407</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.012519220714</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>271.5073585269046</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>208.7218148893222</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -24855,10 +24855,10 @@
         <v>163.5702563680571</v>
       </c>
       <c r="H31" t="n">
-        <v>84.69463316005616</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333.9852014765046</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>349.8192866186168</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.29628209397736</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7218148893222</v>
@@ -24982,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25125,22 +25125,22 @@
         <v>0.5190049372437429</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>150.5856664684936</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U34" t="n">
-        <v>82.32123044983791</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>146.1974501070792</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.012519220714</v>
+        <v>283.7843861570714</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>271.5073585269046</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.5190049372437429</v>
       </c>
       <c r="S37" t="n">
         <v>150.5856664684936</v>
       </c>
       <c r="T37" t="n">
-        <v>119.9806480222684</v>
+        <v>236.5300678317505</v>
       </c>
       <c r="U37" t="n">
         <v>277.3267416342995</v>
@@ -25374,13 +25374,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>102.3262839566066</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>322.5266127198445</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.012519220714</v>
+        <v>178.3534178111894</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5887081042933</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>101.3042021792314</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.2527378018481</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.97209018366931</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>62.47784294960076</v>
+        <v>111.1384852946009</v>
       </c>
       <c r="H41" t="n">
         <v>271.5073585269046</v>
@@ -25681,10 +25681,10 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7218148893222</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5887081042933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -25794,13 +25794,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>136.3682223807156</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.5702563680571</v>
       </c>
       <c r="H43" t="n">
         <v>133.2527378018481</v>
@@ -25842,10 +25842,10 @@
         <v>236.5300678317505</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3267416342995</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>51.29628209397736</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7218148893222</v>
       </c>
       <c r="U44" t="n">
         <v>255.5887081042933</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>186.1034176350719</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>72.06812257281655</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>92.47873779381032</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>6.065471068204261</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>55833.58239210643</v>
+        <v>55833.58239210644</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>253561.057015089</v>
+        <v>253561.0570150892</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>253561.057015089</v>
+        <v>253561.0570150893</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>253561.057015089</v>
+        <v>253561.0570150892</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>253561.0570150889</v>
+        <v>253561.0570150893</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>409387.7679663082</v>
+        <v>409387.7679663083</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>409387.7679663085</v>
+        <v>409387.7679663083</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>409387.7679663083</v>
+        <v>409387.7679663084</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>409387.7679663082</v>
+        <v>409387.7679663083</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>25590.39192971546</v>
       </c>
       <c r="C2" t="n">
-        <v>27528.30673077771</v>
+        <v>27528.3067307777</v>
       </c>
       <c r="D2" t="n">
         <v>27655.13725404203</v>
       </c>
       <c r="E2" t="n">
-        <v>116215.4844652492</v>
+        <v>116215.4844652493</v>
       </c>
       <c r="F2" t="n">
         <v>116215.4844652492</v>
@@ -26331,7 +26331,7 @@
         <v>116215.4844652492</v>
       </c>
       <c r="H2" t="n">
-        <v>116215.4844652491</v>
+        <v>116215.4844652492</v>
       </c>
       <c r="I2" t="n">
         <v>187636.0603178912</v>
@@ -26343,13 +26343,13 @@
         <v>187636.0603178912</v>
       </c>
       <c r="L2" t="n">
-        <v>187636.0603178913</v>
+        <v>187636.0603178912</v>
       </c>
       <c r="M2" t="n">
         <v>187636.0603178912</v>
       </c>
       <c r="N2" t="n">
-        <v>187636.0603178913</v>
+        <v>187636.0603178912</v>
       </c>
       <c r="O2" t="n">
         <v>187636.0603178912</v>
@@ -26368,13 +26368,13 @@
         <v>80658.96448328666</v>
       </c>
       <c r="C3" t="n">
-        <v>6698.167324106135</v>
+        <v>6698.167324106151</v>
       </c>
       <c r="D3" t="n">
-        <v>422.3904454242963</v>
+        <v>422.3904454242985</v>
       </c>
       <c r="E3" t="n">
-        <v>313754.3405050006</v>
+        <v>313754.340505001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>235999.2542028935</v>
+        <v>235999.254202893</v>
       </c>
       <c r="J3" t="n">
         <v>4766.710787430398</v>
       </c>
       <c r="K3" t="n">
-        <v>1361.838499300736</v>
+        <v>1361.838499300738</v>
       </c>
       <c r="L3" t="n">
-        <v>89.28587775765605</v>
+        <v>89.28587775762908</v>
       </c>
       <c r="M3" t="n">
-        <v>82152.98292850652</v>
+        <v>82152.98292850667</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>13.22273493796322</v>
       </c>
       <c r="C4" t="n">
-        <v>17.15222569169688</v>
+        <v>17.15222569169689</v>
       </c>
       <c r="D4" t="n">
-        <v>17.41872404354269</v>
+        <v>17.4187240435427</v>
       </c>
       <c r="E4" t="n">
-        <v>248.3394870559529</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="F4" t="n">
-        <v>248.3394870559529</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="G4" t="n">
-        <v>248.3394870559529</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="H4" t="n">
-        <v>248.3394870559529</v>
+        <v>248.3394870559533</v>
       </c>
       <c r="I4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="J4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="K4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="L4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="M4" t="n">
         <v>440.4537918539642</v>
       </c>
       <c r="N4" t="n">
-        <v>440.4537918539642</v>
+        <v>440.4537918539641</v>
       </c>
       <c r="O4" t="n">
         <v>440.4537918539642</v>
@@ -26475,40 +26475,40 @@
         <v>36863.06036917747</v>
       </c>
       <c r="D5" t="n">
-        <v>36892.4719640909</v>
+        <v>36892.47196409089</v>
       </c>
       <c r="E5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="F5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="G5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="H5" t="n">
-        <v>29151.03873621161</v>
+        <v>29151.03873621165</v>
       </c>
       <c r="I5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="J5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="K5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="L5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="M5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="N5" t="n">
         <v>50537.10295659397</v>
       </c>
       <c r="O5" t="n">
-        <v>50537.10295659396</v>
+        <v>50537.10295659397</v>
       </c>
       <c r="P5" t="n">
         <v>50537.10295659397</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91503.70841916409</v>
+        <v>-92843.49512587511</v>
       </c>
       <c r="C6" t="n">
-        <v>-16050.0731881976</v>
+        <v>-17381.05119126745</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.143879516705</v>
+        <v>-11007.54538020805</v>
       </c>
       <c r="E6" t="n">
-        <v>-226938.2342630189</v>
+        <v>-227866.0887309325</v>
       </c>
       <c r="F6" t="n">
-        <v>86816.10624198162</v>
+        <v>85888.2517740685</v>
       </c>
       <c r="G6" t="n">
-        <v>86816.10624198162</v>
+        <v>85888.25177406847</v>
       </c>
       <c r="H6" t="n">
-        <v>86816.10624198156</v>
+        <v>85888.2517740685</v>
       </c>
       <c r="I6" t="n">
-        <v>-99340.75063345018</v>
+        <v>-99943.96612021452</v>
       </c>
       <c r="J6" t="n">
-        <v>131891.7927820129</v>
+        <v>131288.5772952481</v>
       </c>
       <c r="K6" t="n">
-        <v>135296.6650701425</v>
+        <v>134693.4495833778</v>
       </c>
       <c r="L6" t="n">
-        <v>136569.2176916857</v>
+        <v>135966.0022049209</v>
       </c>
       <c r="M6" t="n">
-        <v>54505.52064093675</v>
+        <v>53902.30515417183</v>
       </c>
       <c r="N6" t="n">
-        <v>136658.5035694433</v>
+        <v>136055.2880826785</v>
       </c>
       <c r="O6" t="n">
-        <v>136658.5035694433</v>
+        <v>136055.2880826785</v>
       </c>
       <c r="P6" t="n">
-        <v>136658.5035694433</v>
+        <v>136055.2880826785</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>77.36880956975661</v>
       </c>
       <c r="C3" t="n">
-        <v>82.84723950768692</v>
+        <v>82.84723950768694</v>
       </c>
       <c r="D3" t="n">
-        <v>83.21249026304835</v>
+        <v>83.21249026304837</v>
       </c>
       <c r="E3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="F3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="G3" t="n">
-        <v>351.2282270895395</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="H3" t="n">
-        <v>351.2282270895394</v>
+        <v>351.2282270895399</v>
       </c>
       <c r="I3" t="n">
         <v>567.9342007257877</v>
@@ -26795,40 +26795,40 @@
         <v>23.50971295904437</v>
       </c>
       <c r="D4" t="n">
-        <v>23.86249467691512</v>
+        <v>23.86249467691514</v>
       </c>
       <c r="E4" t="n">
-        <v>353.5240688430864</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="F4" t="n">
-        <v>353.5240688430863</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="G4" t="n">
-        <v>353.5240688430863</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="H4" t="n">
-        <v>353.5240688430863</v>
+        <v>353.5240688430869</v>
       </c>
       <c r="I4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="J4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="K4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="L4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="M4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="N4" t="n">
         <v>627.5680490258519</v>
       </c>
       <c r="O4" t="n">
-        <v>627.5680490258518</v>
+        <v>627.5680490258519</v>
       </c>
       <c r="P4" t="n">
         <v>627.5680490258519</v>
@@ -26962,13 +26962,13 @@
         <v>77.36880956975661</v>
       </c>
       <c r="C3" t="n">
-        <v>5.478429937930315</v>
+        <v>5.478429937930329</v>
       </c>
       <c r="D3" t="n">
         <v>0.3652507553614299</v>
       </c>
       <c r="E3" t="n">
-        <v>268.0157368264911</v>
+        <v>268.0157368264915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>216.7059736362483</v>
+        <v>216.7059736362478</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>18.21830727030009</v>
       </c>
       <c r="C4" t="n">
-        <v>5.291405688744273</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3527817178707551</v>
+        <v>0.3527817178707622</v>
       </c>
       <c r="E4" t="n">
-        <v>329.6615741661712</v>
+        <v>329.6615741661718</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>274.0439801827655</v>
+        <v>274.043980182765</v>
       </c>
       <c r="J4" t="n">
         <v>18.21830727030009</v>
       </c>
       <c r="K4" t="n">
-        <v>5.291405688744273</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527817178708688</v>
+        <v>0.3527817178707622</v>
       </c>
       <c r="M4" t="n">
-        <v>329.6615741661711</v>
+        <v>329.6615741661718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>18.21830727030009</v>
       </c>
       <c r="K4" t="n">
-        <v>5.291405688744273</v>
+        <v>5.29140568874428</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3527817178707551</v>
+        <v>0.3527817178707622</v>
       </c>
       <c r="M4" t="n">
-        <v>329.6615741661712</v>
+        <v>329.6615741661718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31132,16 +31132,16 @@
         <v>15.72265591454837</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>26.87252322575216</v>
       </c>
       <c r="L3" t="n">
-        <v>31.78561213073773</v>
+        <v>36.13342375236605</v>
       </c>
       <c r="M3" t="n">
         <v>41.31508778262807</v>
       </c>
       <c r="N3" t="n">
-        <v>39.56133548384176</v>
+        <v>30.74023446979461</v>
       </c>
       <c r="O3" t="n">
         <v>39.5945831389678</v>
@@ -31281,16 +31281,16 @@
         <v>0.3330542291766306</v>
       </c>
       <c r="H5" t="n">
-        <v>3.410891624555169</v>
+        <v>3.41089162455517</v>
       </c>
       <c r="I5" t="n">
-        <v>12.84007317033206</v>
+        <v>12.84007317033207</v>
       </c>
       <c r="J5" t="n">
         <v>28.26756138358008</v>
       </c>
       <c r="K5" t="n">
-        <v>42.36574690462686</v>
+        <v>42.36574690462687</v>
       </c>
       <c r="L5" t="n">
         <v>52.55845527079118</v>
@@ -31299,28 +31299,28 @@
         <v>58.48140841891108</v>
       </c>
       <c r="N5" t="n">
-        <v>59.42769874755918</v>
+        <v>59.4276987475592</v>
       </c>
       <c r="O5" t="n">
-        <v>56.11589075618406</v>
+        <v>56.11589075618407</v>
       </c>
       <c r="P5" t="n">
         <v>47.89361447338599</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.96610989099789</v>
+        <v>35.9661098909979</v>
       </c>
       <c r="R5" t="n">
         <v>20.92121772351654</v>
       </c>
       <c r="S5" t="n">
-        <v>7.589473247362477</v>
+        <v>7.589473247362479</v>
       </c>
       <c r="T5" t="n">
         <v>1.457944888220701</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02664433833413044</v>
+        <v>0.02664433833413045</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1781997227146473</v>
+        <v>0.1781997227146474</v>
       </c>
       <c r="H6" t="n">
         <v>1.721034164112516</v>
       </c>
       <c r="I6" t="n">
-        <v>6.135385189956061</v>
+        <v>6.135385189956062</v>
       </c>
       <c r="J6" t="n">
-        <v>16.83596590787815</v>
+        <v>16.83596590787816</v>
       </c>
       <c r="K6" t="n">
-        <v>28.77534732975953</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>38.69200558328341</v>
+        <v>38.69200558328342</v>
       </c>
       <c r="M6" t="n">
-        <v>45.15174553168936</v>
+        <v>45.15174553168937</v>
       </c>
       <c r="N6" t="n">
-        <v>38.34014775380278</v>
+        <v>44.85274117258604</v>
       </c>
       <c r="O6" t="n">
-        <v>42.39824718465559</v>
+        <v>42.26176726229852</v>
       </c>
       <c r="P6" t="n">
-        <v>34.0283312611856</v>
+        <v>34.02833126118561</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.74703828897849</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>11.06401436293223</v>
@@ -31396,7 +31396,7 @@
         <v>3.309981691651452</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7182699349770213</v>
+        <v>0.7182699349770214</v>
       </c>
       <c r="U6" t="n">
         <v>0.01172366596806891</v>
@@ -31442,19 +31442,19 @@
         <v>1.32827213505767</v>
       </c>
       <c r="I7" t="n">
-        <v>4.492765053957842</v>
+        <v>4.492765053957843</v>
       </c>
       <c r="J7" t="n">
         <v>10.56234396149641</v>
       </c>
       <c r="K7" t="n">
-        <v>17.35717575259407</v>
+        <v>17.35717575259408</v>
       </c>
       <c r="L7" t="n">
         <v>22.21120909686413</v>
       </c>
       <c r="M7" t="n">
-        <v>23.41860575132861</v>
+        <v>23.41860575132862</v>
       </c>
       <c r="N7" t="n">
         <v>22.86176364971959</v>
@@ -31463,22 +31463,22 @@
         <v>21.1165390141888</v>
       </c>
       <c r="P7" t="n">
-        <v>18.06884712147977</v>
+        <v>18.06884712147978</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.50993316566072</v>
+        <v>12.50993316566073</v>
       </c>
       <c r="R7" t="n">
-        <v>6.717417157459334</v>
+        <v>6.717417157459335</v>
       </c>
       <c r="S7" t="n">
         <v>2.603576362889111</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6383311896493908</v>
+        <v>0.638331189649391</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008148908804034788</v>
+        <v>0.00814890880403479</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,31 +31518,31 @@
         <v>0.3345225739218022</v>
       </c>
       <c r="H8" t="n">
-        <v>3.425929310176657</v>
+        <v>3.425929310176658</v>
       </c>
       <c r="I8" t="n">
         <v>12.89668153112029</v>
       </c>
       <c r="J8" t="n">
-        <v>28.39218530839558</v>
+        <v>28.39218530839559</v>
       </c>
       <c r="K8" t="n">
         <v>42.55252586250548</v>
       </c>
       <c r="L8" t="n">
-        <v>52.79017108416484</v>
+        <v>52.79017108416485</v>
       </c>
       <c r="M8" t="n">
         <v>58.73923690814669</v>
       </c>
       <c r="N8" t="n">
-        <v>59.68969917130201</v>
+        <v>59.68969917130202</v>
       </c>
       <c r="O8" t="n">
-        <v>56.36329032686709</v>
+        <v>56.3632903268671</v>
       </c>
       <c r="P8" t="n">
-        <v>48.10476428317259</v>
+        <v>48.1047642831726</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -31551,7 +31551,7 @@
         <v>21.01345363411543</v>
       </c>
       <c r="S8" t="n">
-        <v>7.622933153243075</v>
+        <v>7.622933153243076</v>
       </c>
       <c r="T8" t="n">
         <v>1.46437256734269</v>
@@ -31600,28 +31600,28 @@
         <v>1.728621731690873</v>
       </c>
       <c r="I9" t="n">
-        <v>6.162434420423865</v>
+        <v>6.162434420423866</v>
       </c>
       <c r="J9" t="n">
-        <v>16.91019106373891</v>
+        <v>16.91019106373892</v>
       </c>
       <c r="K9" t="n">
         <v>28.90220994353445</v>
       </c>
       <c r="L9" t="n">
-        <v>32.46034996138236</v>
+        <v>38.86258802332274</v>
       </c>
       <c r="M9" t="n">
-        <v>45.35080719336135</v>
+        <v>45.35080719336136</v>
       </c>
       <c r="N9" t="n">
-        <v>45.20552289045679</v>
+        <v>38.80328482851642</v>
       </c>
       <c r="O9" t="n">
-        <v>42.58516942735456</v>
+        <v>42.58516942735457</v>
       </c>
       <c r="P9" t="n">
-        <v>34.17835284030754</v>
+        <v>34.17835284030755</v>
       </c>
       <c r="Q9" t="n">
         <v>22.84732374165811</v>
@@ -31633,10 +31633,10 @@
         <v>3.324574493056694</v>
       </c>
       <c r="T9" t="n">
-        <v>0.721436590110768</v>
+        <v>0.7214365901107681</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01177535239571439</v>
+        <v>0.0117753523957144</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31685,19 +31685,19 @@
         <v>10.60891043894634</v>
       </c>
       <c r="K10" t="n">
-        <v>17.43369877970094</v>
+        <v>17.43369877970095</v>
       </c>
       <c r="L10" t="n">
-        <v>22.3091322256048</v>
+        <v>22.30913222560481</v>
       </c>
       <c r="M10" t="n">
-        <v>23.52185196074987</v>
+        <v>23.52185196074988</v>
       </c>
       <c r="N10" t="n">
         <v>22.96255489504744</v>
       </c>
       <c r="O10" t="n">
-        <v>21.20963604278485</v>
+        <v>21.20963604278486</v>
       </c>
       <c r="P10" t="n">
         <v>18.14850771245237</v>
@@ -31706,16 +31706,16 @@
         <v>12.5650860297203</v>
       </c>
       <c r="R10" t="n">
-        <v>6.747032407230114</v>
+        <v>6.747032407230116</v>
       </c>
       <c r="S10" t="n">
-        <v>2.615054816955141</v>
+        <v>2.615054816955142</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6411454167808641</v>
+        <v>0.6411454167808642</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00818483510784083</v>
+        <v>0.008184835107840831</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H11" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I11" t="n">
-        <v>54.4350803009828</v>
+        <v>54.43508030098287</v>
       </c>
       <c r="J11" t="n">
-        <v>119.8394240761439</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K11" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L11" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519902</v>
       </c>
       <c r="M11" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N11" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O11" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252571</v>
       </c>
       <c r="P11" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110942</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R11" t="n">
-        <v>88.69483465291773</v>
+        <v>88.69483465291783</v>
       </c>
       <c r="S11" t="n">
-        <v>32.17532954694627</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T11" t="n">
-        <v>6.180910810389784</v>
+        <v>6.180910810389791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7554720356265566</v>
+        <v>0.7554720356265575</v>
       </c>
       <c r="H12" t="n">
-        <v>7.296269396709114</v>
+        <v>7.296269396709122</v>
       </c>
       <c r="I12" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J12" t="n">
-        <v>71.37553999750727</v>
+        <v>71.37553999750736</v>
       </c>
       <c r="K12" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L12" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723365</v>
       </c>
       <c r="M12" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N12" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658738</v>
       </c>
       <c r="O12" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P12" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.43534265296186</v>
+        <v>96.43534265296198</v>
       </c>
       <c r="R12" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S12" t="n">
-        <v>14.03256171437923</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T12" t="n">
-        <v>3.045082459389497</v>
+        <v>3.0450824593895</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.04970210760701038</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6333623767188415</v>
+        <v>0.6333623767188423</v>
       </c>
       <c r="H13" t="n">
-        <v>5.631167313009342</v>
+        <v>5.631167313009348</v>
       </c>
       <c r="I13" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J13" t="n">
-        <v>44.7787200340221</v>
+        <v>44.77872003402215</v>
       </c>
       <c r="K13" t="n">
-        <v>73.58519249515267</v>
+        <v>73.58519249515275</v>
       </c>
       <c r="L13" t="n">
-        <v>94.1637118987267</v>
+        <v>94.16371189872682</v>
       </c>
       <c r="M13" t="n">
-        <v>99.28243147057259</v>
+        <v>99.2824314705727</v>
       </c>
       <c r="N13" t="n">
-        <v>96.92171715734789</v>
+        <v>96.921717157348</v>
       </c>
       <c r="O13" t="n">
-        <v>89.52289302931412</v>
+        <v>89.52289302931422</v>
       </c>
       <c r="P13" t="n">
-        <v>76.60230054424969</v>
+        <v>76.60230054424977</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.03546229052046</v>
+        <v>53.03546229052052</v>
       </c>
       <c r="R13" t="n">
-        <v>28.47827559319445</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S13" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T13" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011871</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H14" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I14" t="n">
-        <v>54.4350803009828</v>
+        <v>54.43508030098288</v>
       </c>
       <c r="J14" t="n">
-        <v>119.8394240761439</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K14" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L14" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519903</v>
       </c>
       <c r="M14" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N14" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O14" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252572</v>
       </c>
       <c r="P14" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110943</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R14" t="n">
-        <v>88.69483465291773</v>
+        <v>88.69483465291785</v>
       </c>
       <c r="S14" t="n">
-        <v>32.17532954694627</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T14" t="n">
-        <v>6.180910810389784</v>
+        <v>6.180910810389792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7554720356265566</v>
+        <v>0.7554720356265576</v>
       </c>
       <c r="H15" t="n">
-        <v>7.296269396709114</v>
+        <v>7.296269396709123</v>
       </c>
       <c r="I15" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J15" t="n">
-        <v>71.37553999750727</v>
+        <v>71.37553999750737</v>
       </c>
       <c r="K15" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L15" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723366</v>
       </c>
       <c r="M15" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N15" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658739</v>
       </c>
       <c r="O15" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P15" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.43534265296186</v>
+        <v>96.43534265296199</v>
       </c>
       <c r="R15" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S15" t="n">
-        <v>14.03256171437923</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T15" t="n">
-        <v>3.045082459389497</v>
+        <v>3.045082459389501</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.04970210760701039</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6333623767188415</v>
+        <v>0.6333623767188424</v>
       </c>
       <c r="H16" t="n">
-        <v>5.631167313009342</v>
+        <v>5.631167313009349</v>
       </c>
       <c r="I16" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J16" t="n">
-        <v>44.7787200340221</v>
+        <v>44.77872003402216</v>
       </c>
       <c r="K16" t="n">
-        <v>73.58519249515267</v>
+        <v>73.58519249515277</v>
       </c>
       <c r="L16" t="n">
-        <v>94.1637118987267</v>
+        <v>94.16371189872683</v>
       </c>
       <c r="M16" t="n">
-        <v>99.28243147057259</v>
+        <v>99.28243147057272</v>
       </c>
       <c r="N16" t="n">
-        <v>96.92171715734789</v>
+        <v>96.92171715734801</v>
       </c>
       <c r="O16" t="n">
-        <v>89.52289302931412</v>
+        <v>89.52289302931423</v>
       </c>
       <c r="P16" t="n">
-        <v>76.60230054424969</v>
+        <v>76.60230054424979</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.03546229052046</v>
+        <v>53.03546229052053</v>
       </c>
       <c r="R16" t="n">
-        <v>28.47827559319445</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S16" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T16" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H17" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I17" t="n">
-        <v>54.4350803009828</v>
+        <v>54.43508030098287</v>
       </c>
       <c r="J17" t="n">
-        <v>119.8394240761439</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K17" t="n">
-        <v>179.608231524185</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L17" t="n">
-        <v>222.81989325199</v>
+        <v>222.8198932519902</v>
       </c>
       <c r="M17" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N17" t="n">
-        <v>251.9418316790121</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O17" t="n">
-        <v>237.9015274252569</v>
+        <v>237.9015274252571</v>
       </c>
       <c r="P17" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110942</v>
       </c>
       <c r="Q17" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R17" t="n">
-        <v>88.69483465291773</v>
+        <v>88.69483465291783</v>
       </c>
       <c r="S17" t="n">
-        <v>32.17532954694627</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T17" t="n">
-        <v>6.180910810389784</v>
+        <v>6.180910810389791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7554720356265566</v>
+        <v>0.7554720356265575</v>
       </c>
       <c r="H18" t="n">
-        <v>7.296269396709114</v>
+        <v>7.296269396709122</v>
       </c>
       <c r="I18" t="n">
-        <v>26.01076964766873</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J18" t="n">
-        <v>71.37553999750727</v>
+        <v>71.37553999750736</v>
       </c>
       <c r="K18" t="n">
-        <v>121.9921663844866</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L18" t="n">
-        <v>164.0335224723364</v>
+        <v>164.0335224723365</v>
       </c>
       <c r="M18" t="n">
-        <v>191.419383763799</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N18" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658738</v>
       </c>
       <c r="O18" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P18" t="n">
-        <v>144.2620240662677</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.43534265296186</v>
+        <v>96.43534265296198</v>
       </c>
       <c r="R18" t="n">
-        <v>46.90553568565588</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S18" t="n">
-        <v>14.03256171437923</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T18" t="n">
-        <v>3.045082459389497</v>
+        <v>3.0450824593895</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04970210760701033</v>
+        <v>0.04970210760701038</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6333623767188415</v>
+        <v>0.6333623767188423</v>
       </c>
       <c r="H19" t="n">
-        <v>5.631167313009342</v>
+        <v>5.631167313009348</v>
       </c>
       <c r="I19" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J19" t="n">
-        <v>44.7787200340221</v>
+        <v>44.77872003402215</v>
       </c>
       <c r="K19" t="n">
-        <v>73.58519249515267</v>
+        <v>73.58519249515275</v>
       </c>
       <c r="L19" t="n">
-        <v>94.1637118987267</v>
+        <v>94.16371189872682</v>
       </c>
       <c r="M19" t="n">
-        <v>99.28243147057259</v>
+        <v>99.2824314705727</v>
       </c>
       <c r="N19" t="n">
-        <v>96.92171715734789</v>
+        <v>96.921717157348</v>
       </c>
       <c r="O19" t="n">
-        <v>89.52289302931412</v>
+        <v>89.52289302931422</v>
       </c>
       <c r="P19" t="n">
-        <v>76.60230054424969</v>
+        <v>76.60230054424977</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.03546229052046</v>
+        <v>53.03546229052052</v>
       </c>
       <c r="R19" t="n">
-        <v>28.47827559319445</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S19" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T19" t="n">
-        <v>2.706184700525959</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03454703873011868</v>
+        <v>0.03454703873011871</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.411972772219253</v>
+        <v>1.411972772219255</v>
       </c>
       <c r="H20" t="n">
-        <v>14.46036615349043</v>
+        <v>14.46036615349045</v>
       </c>
       <c r="I20" t="n">
-        <v>54.4350803009828</v>
+        <v>54.43508030098287</v>
       </c>
       <c r="J20" t="n">
-        <v>119.8394240761439</v>
+        <v>119.8394240761441</v>
       </c>
       <c r="K20" t="n">
-        <v>179.6082315241849</v>
+        <v>179.6082315241852</v>
       </c>
       <c r="L20" t="n">
-        <v>222.8198932519899</v>
+        <v>222.8198932519902</v>
       </c>
       <c r="M20" t="n">
-        <v>247.9300640399441</v>
+        <v>247.9300640399444</v>
       </c>
       <c r="N20" t="n">
-        <v>251.941831679012</v>
+        <v>251.9418316790124</v>
       </c>
       <c r="O20" t="n">
-        <v>237.9015274252568</v>
+        <v>237.9015274252571</v>
       </c>
       <c r="P20" t="n">
-        <v>203.043449611094</v>
+        <v>203.0434496110942</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.477174705992</v>
+        <v>152.4771747059922</v>
       </c>
       <c r="R20" t="n">
-        <v>88.69483465291772</v>
+        <v>88.69483465291783</v>
       </c>
       <c r="S20" t="n">
-        <v>32.17532954694626</v>
+        <v>32.1753295469463</v>
       </c>
       <c r="T20" t="n">
-        <v>6.180910810389783</v>
+        <v>6.180910810389791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1129578217775402</v>
+        <v>0.1129578217775404</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7554720356265565</v>
+        <v>0.7554720356265575</v>
       </c>
       <c r="H21" t="n">
-        <v>7.296269396709112</v>
+        <v>7.296269396709122</v>
       </c>
       <c r="I21" t="n">
-        <v>26.01076964766872</v>
+        <v>26.01076964766876</v>
       </c>
       <c r="J21" t="n">
-        <v>71.37553999750726</v>
+        <v>71.37553999750736</v>
       </c>
       <c r="K21" t="n">
-        <v>121.9921663844865</v>
+        <v>121.9921663844867</v>
       </c>
       <c r="L21" t="n">
-        <v>164.0335224723363</v>
+        <v>164.0335224723365</v>
       </c>
       <c r="M21" t="n">
-        <v>191.4193837637989</v>
+        <v>191.4193837637992</v>
       </c>
       <c r="N21" t="n">
-        <v>196.4856852658736</v>
+        <v>196.4856852658738</v>
       </c>
       <c r="O21" t="n">
-        <v>179.7460154238325</v>
+        <v>179.7460154238327</v>
       </c>
       <c r="P21" t="n">
-        <v>144.2620240662676</v>
+        <v>144.2620240662678</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.43534265296185</v>
+        <v>96.43534265296198</v>
       </c>
       <c r="R21" t="n">
-        <v>46.90553568565587</v>
+        <v>46.90553568565593</v>
       </c>
       <c r="S21" t="n">
-        <v>14.03256171437923</v>
+        <v>14.03256171437925</v>
       </c>
       <c r="T21" t="n">
-        <v>3.045082459389497</v>
+        <v>3.0450824593895</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04970210760701032</v>
+        <v>0.04970210760701038</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6333623767188415</v>
+        <v>0.6333623767188423</v>
       </c>
       <c r="H22" t="n">
-        <v>5.631167313009341</v>
+        <v>5.631167313009348</v>
       </c>
       <c r="I22" t="n">
-        <v>19.04693401987208</v>
+        <v>19.0469340198721</v>
       </c>
       <c r="J22" t="n">
-        <v>44.77872003402209</v>
+        <v>44.77872003402215</v>
       </c>
       <c r="K22" t="n">
-        <v>73.58519249515265</v>
+        <v>73.58519249515275</v>
       </c>
       <c r="L22" t="n">
-        <v>94.16371189872669</v>
+        <v>94.16371189872682</v>
       </c>
       <c r="M22" t="n">
-        <v>99.28243147057258</v>
+        <v>99.2824314705727</v>
       </c>
       <c r="N22" t="n">
-        <v>96.92171715734787</v>
+        <v>96.921717157348</v>
       </c>
       <c r="O22" t="n">
-        <v>89.5228930293141</v>
+        <v>89.52289302931422</v>
       </c>
       <c r="P22" t="n">
-        <v>76.60230054424967</v>
+        <v>76.60230054424977</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.03546229052045</v>
+        <v>53.03546229052052</v>
       </c>
       <c r="R22" t="n">
-        <v>28.47827559319445</v>
+        <v>28.47827559319449</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0377788742729</v>
+        <v>11.03777887427291</v>
       </c>
       <c r="T22" t="n">
-        <v>2.706184700525958</v>
+        <v>2.706184700525962</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03454703873011867</v>
+        <v>0.03454703873011871</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>246.554791632671</v>
       </c>
       <c r="R44" t="n">
-        <v>143.4190823571508</v>
+        <v>143.4190823571512</v>
       </c>
       <c r="S44" t="n">
         <v>52.02733909161363</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.473289392418824</v>
       </c>
       <c r="L3" t="n">
-        <v>9.270525416508173</v>
+        <v>13.61833703813649</v>
       </c>
       <c r="M3" t="n">
         <v>18.21830727030009</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21830727030009</v>
+        <v>9.397206256252952</v>
       </c>
       <c r="O3" t="n">
         <v>16.42269341674558</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.60114610981752</v>
+        <v>6.601146109817527</v>
       </c>
       <c r="L5" t="n">
         <v>14.24641283816825</v>
@@ -34947,10 +34947,10 @@
         <v>21.05014551947927</v>
       </c>
       <c r="N5" t="n">
-        <v>22.14807591311316</v>
+        <v>22.14807591311317</v>
       </c>
       <c r="O5" t="n">
-        <v>18.72493140015996</v>
+        <v>18.72493140015997</v>
       </c>
       <c r="P5" t="n">
         <v>10.31825266315469</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.376113496426189</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16.17691886905385</v>
+        <v>16.17691886905386</v>
       </c>
       <c r="M6" t="n">
         <v>22.05496501936139</v>
       </c>
       <c r="N6" t="n">
-        <v>16.99711954026112</v>
+        <v>23.50971295904437</v>
       </c>
       <c r="O6" t="n">
-        <v>19.22635746243337</v>
+        <v>19.0898775400763</v>
       </c>
       <c r="P6" t="n">
         <v>12.25749005635694</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2924492011629098</v>
+        <v>0.2924492011629134</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8431658598427916</v>
+        <v>0.8431658598427987</v>
       </c>
       <c r="N7" t="n">
-        <v>2.112862674119196</v>
+        <v>2.112862674119199</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.787925067696136</v>
+        <v>6.787925067696143</v>
       </c>
       <c r="L8" t="n">
         <v>14.47812865154192</v>
       </c>
       <c r="M8" t="n">
-        <v>21.30797400871487</v>
+        <v>21.30797400871488</v>
       </c>
       <c r="N8" t="n">
-        <v>22.41007633685599</v>
+        <v>22.410076336856</v>
       </c>
       <c r="O8" t="n">
-        <v>18.97233097084299</v>
+        <v>18.972330970843</v>
       </c>
       <c r="P8" t="n">
-        <v>10.52940247294129</v>
+        <v>10.5294024729413</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.502976110201111</v>
+        <v>6.502976110201114</v>
       </c>
       <c r="L9" t="n">
-        <v>9.945263247152798</v>
+        <v>16.34750130909318</v>
       </c>
       <c r="M9" t="n">
-        <v>22.25402668103337</v>
+        <v>22.25402668103338</v>
       </c>
       <c r="N9" t="n">
-        <v>23.86249467691512</v>
+        <v>17.46025661497476</v>
       </c>
       <c r="O9" t="n">
-        <v>19.41327970513234</v>
+        <v>19.41327970513235</v>
       </c>
       <c r="P9" t="n">
         <v>12.40751163547888</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1002854526796106</v>
+        <v>0.1002854526796142</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3903723299035775</v>
+        <v>0.3903723299035846</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9464120692640563</v>
+        <v>0.9464120692640599</v>
       </c>
       <c r="N10" t="n">
-        <v>2.213653919447047</v>
+        <v>2.213653919447051</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.8871777570193</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J11" t="n">
-        <v>90.41946459055742</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K11" t="n">
-        <v>143.8436307293756</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L11" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M11" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N11" t="n">
-        <v>214.662208844566</v>
+        <v>214.6622088445663</v>
       </c>
       <c r="O11" t="n">
-        <v>200.5105680692328</v>
+        <v>200.510568069233</v>
       </c>
       <c r="P11" t="n">
-        <v>165.4680878008627</v>
+        <v>165.4680878008629</v>
       </c>
       <c r="Q11" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R11" t="n">
-        <v>53.66218475812126</v>
+        <v>53.66218475812136</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.838382897668726</v>
+        <v>9.838382897668758</v>
       </c>
       <c r="J12" t="n">
-        <v>50.76442566417394</v>
+        <v>50.76442566417403</v>
       </c>
       <c r="K12" t="n">
-        <v>99.59293255115323</v>
+        <v>99.59293255115337</v>
       </c>
       <c r="L12" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M12" t="n">
-        <v>168.322603251471</v>
+        <v>168.3226032514712</v>
       </c>
       <c r="N12" t="n">
-        <v>175.1426570523319</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O12" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P12" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.68830436398336</v>
+        <v>73.68830436398348</v>
       </c>
       <c r="R12" t="n">
-        <v>23.23261629151173</v>
+        <v>23.23261629151178</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24.14196405012023</v>
+        <v>24.14196405012028</v>
       </c>
       <c r="K13" t="n">
-        <v>52.62053804244067</v>
+        <v>52.62053804244076</v>
       </c>
       <c r="L13" t="n">
-        <v>72.24495200302547</v>
+        <v>72.24495200302559</v>
       </c>
       <c r="M13" t="n">
-        <v>76.70699157908678</v>
+        <v>76.70699157908689</v>
       </c>
       <c r="N13" t="n">
-        <v>76.17281618174749</v>
+        <v>76.17281618174761</v>
       </c>
       <c r="O13" t="n">
-        <v>67.02370553088967</v>
+        <v>67.02370553088977</v>
       </c>
       <c r="P13" t="n">
-        <v>54.2214998862632</v>
+        <v>54.22149988626329</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.41589952573551</v>
+        <v>28.41589952573557</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19.8871777570193</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J14" t="n">
-        <v>90.41946459055742</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K14" t="n">
-        <v>143.8436307293756</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L14" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M14" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N14" t="n">
-        <v>214.662208844566</v>
+        <v>214.6622088445664</v>
       </c>
       <c r="O14" t="n">
-        <v>200.5105680692328</v>
+        <v>200.5105680692331</v>
       </c>
       <c r="P14" t="n">
-        <v>165.4680878008627</v>
+        <v>165.468087800863</v>
       </c>
       <c r="Q14" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R14" t="n">
-        <v>53.66218475812126</v>
+        <v>53.66218475812138</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.838382897668726</v>
+        <v>9.838382897668762</v>
       </c>
       <c r="J15" t="n">
-        <v>50.76442566417394</v>
+        <v>50.76442566417404</v>
       </c>
       <c r="K15" t="n">
-        <v>99.59293255115323</v>
+        <v>99.59293255115338</v>
       </c>
       <c r="L15" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M15" t="n">
-        <v>168.322603251471</v>
+        <v>168.3226032514713</v>
       </c>
       <c r="N15" t="n">
-        <v>175.1426570523319</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O15" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P15" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.68830436398336</v>
+        <v>73.68830436398349</v>
       </c>
       <c r="R15" t="n">
-        <v>23.23261629151173</v>
+        <v>23.23261629151179</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>24.14196405012023</v>
+        <v>24.14196405012029</v>
       </c>
       <c r="K16" t="n">
-        <v>52.62053804244067</v>
+        <v>52.62053804244077</v>
       </c>
       <c r="L16" t="n">
-        <v>72.24495200302547</v>
+        <v>72.24495200302562</v>
       </c>
       <c r="M16" t="n">
-        <v>76.70699157908678</v>
+        <v>76.7069915790869</v>
       </c>
       <c r="N16" t="n">
-        <v>76.17281618174749</v>
+        <v>76.17281618174762</v>
       </c>
       <c r="O16" t="n">
-        <v>67.02370553088967</v>
+        <v>67.02370553088979</v>
       </c>
       <c r="P16" t="n">
-        <v>54.2214998862632</v>
+        <v>54.2214998862633</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41589952573551</v>
+        <v>28.41589952573558</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.8871777570193</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J17" t="n">
-        <v>90.41946459055742</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K17" t="n">
-        <v>143.8436307293756</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L17" t="n">
-        <v>184.5078508193671</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M17" t="n">
-        <v>210.4988011405123</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N17" t="n">
-        <v>214.662208844566</v>
+        <v>214.6622088445663</v>
       </c>
       <c r="O17" t="n">
-        <v>200.5105680692328</v>
+        <v>200.510568069233</v>
       </c>
       <c r="P17" t="n">
-        <v>165.4680878008627</v>
+        <v>165.4680878008629</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R17" t="n">
-        <v>53.66218475812126</v>
+        <v>53.66218475812136</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.838382897668726</v>
+        <v>9.838382897668758</v>
       </c>
       <c r="J18" t="n">
-        <v>50.76442566417394</v>
+        <v>50.76442566417403</v>
       </c>
       <c r="K18" t="n">
-        <v>99.59293255115323</v>
+        <v>99.59293255115337</v>
       </c>
       <c r="L18" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M18" t="n">
-        <v>168.322603251471</v>
+        <v>168.3226032514712</v>
       </c>
       <c r="N18" t="n">
-        <v>175.1426570523319</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O18" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P18" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.68830436398336</v>
+        <v>73.68830436398348</v>
       </c>
       <c r="R18" t="n">
-        <v>23.23261629151173</v>
+        <v>23.23261629151178</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.14196405012023</v>
+        <v>24.14196405012028</v>
       </c>
       <c r="K19" t="n">
-        <v>52.62053804244067</v>
+        <v>52.62053804244076</v>
       </c>
       <c r="L19" t="n">
-        <v>72.24495200302547</v>
+        <v>72.24495200302559</v>
       </c>
       <c r="M19" t="n">
-        <v>76.70699157908678</v>
+        <v>76.70699157908689</v>
       </c>
       <c r="N19" t="n">
-        <v>76.17281618174749</v>
+        <v>76.17281618174761</v>
       </c>
       <c r="O19" t="n">
-        <v>67.02370553088967</v>
+        <v>67.02370553088977</v>
       </c>
       <c r="P19" t="n">
-        <v>54.2214998862632</v>
+        <v>54.22149988626329</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.41589952573551</v>
+        <v>28.41589952573557</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>19.88717775701929</v>
+        <v>19.88717775701937</v>
       </c>
       <c r="J20" t="n">
-        <v>90.4194645905574</v>
+        <v>90.41946459055757</v>
       </c>
       <c r="K20" t="n">
-        <v>143.8436307293756</v>
+        <v>143.8436307293758</v>
       </c>
       <c r="L20" t="n">
-        <v>184.507850819367</v>
+        <v>184.5078508193673</v>
       </c>
       <c r="M20" t="n">
-        <v>210.4988011405122</v>
+        <v>210.4988011405126</v>
       </c>
       <c r="N20" t="n">
-        <v>214.662208844566</v>
+        <v>214.6622088445663</v>
       </c>
       <c r="O20" t="n">
-        <v>200.5105680692327</v>
+        <v>200.510568069233</v>
       </c>
       <c r="P20" t="n">
-        <v>165.4680878008627</v>
+        <v>165.4680878008629</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.3525001013939</v>
+        <v>116.3525001013941</v>
       </c>
       <c r="R20" t="n">
-        <v>53.66218475812125</v>
+        <v>53.66218475812136</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.838382897668723</v>
+        <v>9.838382897668758</v>
       </c>
       <c r="J21" t="n">
-        <v>50.76442566417393</v>
+        <v>50.76442566417403</v>
       </c>
       <c r="K21" t="n">
-        <v>99.5929325511532</v>
+        <v>99.59293255115337</v>
       </c>
       <c r="L21" t="n">
-        <v>141.5184357581068</v>
+        <v>141.518435758107</v>
       </c>
       <c r="M21" t="n">
-        <v>168.322603251471</v>
+        <v>168.3226032514712</v>
       </c>
       <c r="N21" t="n">
-        <v>175.1426570523319</v>
+        <v>175.1426570523322</v>
       </c>
       <c r="O21" t="n">
-        <v>156.5741257016103</v>
+        <v>156.5741257016105</v>
       </c>
       <c r="P21" t="n">
-        <v>122.491182861439</v>
+        <v>122.4911828614392</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.68830436398335</v>
+        <v>73.68830436398348</v>
       </c>
       <c r="R21" t="n">
-        <v>23.23261629151173</v>
+        <v>23.23261629151178</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.14196405012023</v>
+        <v>24.14196405012028</v>
       </c>
       <c r="K22" t="n">
-        <v>52.62053804244066</v>
+        <v>52.62053804244076</v>
       </c>
       <c r="L22" t="n">
-        <v>72.24495200302547</v>
+        <v>72.24495200302559</v>
       </c>
       <c r="M22" t="n">
-        <v>76.70699157908676</v>
+        <v>76.70699157908689</v>
       </c>
       <c r="N22" t="n">
-        <v>76.17281618174748</v>
+        <v>76.17281618174761</v>
       </c>
       <c r="O22" t="n">
-        <v>67.02370553088966</v>
+        <v>67.02370553088977</v>
       </c>
       <c r="P22" t="n">
-        <v>54.22149988626319</v>
+        <v>54.22149988626329</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.4158995257355</v>
+        <v>28.41589952573557</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>210.4301170280729</v>
       </c>
       <c r="R44" t="n">
-        <v>108.3864324623543</v>
+        <v>108.3864324623548</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
